--- a/Project2_Maroofi_Irwin/data_staging/inflation_excel_series/Case-Schiller_US_National_Price_Index_CSUSHPINSA.xlsx
+++ b/Project2_Maroofi_Irwin/data_staging/inflation_excel_series/Case-Schiller_US_National_Price_Index_CSUSHPINSA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2232" uniqueCount="975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2284" uniqueCount="1000">
   <si>
     <t>realtime_start</t>
   </si>
@@ -28,7 +28,7 @@
     <t>value</t>
   </si>
   <si>
-    <t>2021-08-03</t>
+    <t>2022-09-13</t>
   </si>
   <si>
     <t>1975-01-01</t>
@@ -1702,43 +1702,82 @@
     <t>2021-05-01</t>
   </si>
   <si>
+    <t>2021-06-01</t>
+  </si>
+  <si>
+    <t>2021-07-01</t>
+  </si>
+  <si>
+    <t>2021-08-01</t>
+  </si>
+  <si>
+    <t>2021-09-01</t>
+  </si>
+  <si>
+    <t>2021-10-01</t>
+  </si>
+  <si>
+    <t>2021-11-01</t>
+  </si>
+  <si>
+    <t>2021-12-01</t>
+  </si>
+  <si>
+    <t>2022-01-01</t>
+  </si>
+  <si>
+    <t>2022-02-01</t>
+  </si>
+  <si>
+    <t>2022-03-01</t>
+  </si>
+  <si>
+    <t>2022-04-01</t>
+  </si>
+  <si>
+    <t>2022-05-01</t>
+  </si>
+  <si>
+    <t>2022-06-01</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
-    <t>63.736999999999995</t>
-  </si>
-  <si>
-    <t>64.137</t>
-  </si>
-  <si>
-    <t>64.472</t>
-  </si>
-  <si>
-    <t>64.977</t>
-  </si>
-  <si>
-    <t>65.55199999999999</t>
-  </si>
-  <si>
-    <t>66.222</t>
+    <t>63.735</t>
+  </si>
+  <si>
+    <t>64.134</t>
+  </si>
+  <si>
+    <t>64.47</t>
+  </si>
+  <si>
+    <t>64.97399999999999</t>
+  </si>
+  <si>
+    <t>65.54899999999999</t>
+  </si>
+  <si>
+    <t>66.22</t>
   </si>
   <si>
     <t>66.78699999999999</t>
   </si>
   <si>
-    <t>67.26899999999999</t>
+    <t>67.27</t>
   </si>
   <si>
     <t>67.624</t>
   </si>
   <si>
-    <t>67.904</t>
-  </si>
-  <si>
-    <t>68.094</t>
-  </si>
-  <si>
-    <t>68.345</t>
+    <t>67.902</t>
+  </si>
+  <si>
+    <t>68.092</t>
+  </si>
+  <si>
+    <t>68.344</t>
   </si>
   <si>
     <t>68.583</t>
@@ -1747,70 +1786,70 @@
     <t>68.916</t>
   </si>
   <si>
-    <t>69.324</t>
-  </si>
-  <si>
-    <t>69.788</t>
-  </si>
-  <si>
-    <t>70.407</t>
-  </si>
-  <si>
-    <t>71.066</t>
-  </si>
-  <si>
-    <t>71.684</t>
-  </si>
-  <si>
-    <t>72.184</t>
-  </si>
-  <si>
-    <t>72.57300000000001</t>
-  </si>
-  <si>
-    <t>72.822</t>
+    <t>69.325</t>
+  </si>
+  <si>
+    <t>69.79</t>
+  </si>
+  <si>
+    <t>70.40899999999999</t>
+  </si>
+  <si>
+    <t>71.068</t>
+  </si>
+  <si>
+    <t>71.686</t>
+  </si>
+  <si>
+    <t>72.185</t>
+  </si>
+  <si>
+    <t>72.574</t>
+  </si>
+  <si>
+    <t>72.82300000000001</t>
   </si>
   <si>
     <t>73.065</t>
   </si>
   <si>
-    <t>73.278</t>
-  </si>
-  <si>
-    <t>73.616</t>
-  </si>
-  <si>
-    <t>73.967</t>
-  </si>
-  <si>
-    <t>74.41</t>
-  </si>
-  <si>
-    <t>74.87</t>
-  </si>
-  <si>
-    <t>75.29899999999999</t>
-  </si>
-  <si>
-    <t>75.69800000000001</t>
-  </si>
-  <si>
-    <t>76.042</t>
-  </si>
-  <si>
-    <t>76.27199999999999</t>
+    <t>73.279</t>
+  </si>
+  <si>
+    <t>73.618</t>
+  </si>
+  <si>
+    <t>73.969</t>
+  </si>
+  <si>
+    <t>74.411</t>
+  </si>
+  <si>
+    <t>74.868</t>
+  </si>
+  <si>
+    <t>75.296</t>
+  </si>
+  <si>
+    <t>75.697</t>
+  </si>
+  <si>
+    <t>76.043</t>
+  </si>
+  <si>
+    <t>76.274</t>
   </si>
   <si>
     <t>76.422</t>
   </si>
   <si>
-    <t>76.49</t>
-  </si>
-  <si>
-    <t>76.523</t>
-  </si>
-  <si>
-    <t>76.499</t>
+    <t>76.48899999999999</t>
+  </si>
+  <si>
+    <t>76.52199999999999</t>
+  </si>
+  <si>
+    <t>76.498</t>
   </si>
   <si>
     <t>76.527</t>
@@ -1822,61 +1861,61 @@
     <t>76.79</t>
   </si>
   <si>
-    <t>77.039</t>
+    <t>77.038</t>
   </si>
   <si>
     <t>77.297</t>
   </si>
   <si>
-    <t>77.50399999999999</t>
-  </si>
-  <si>
-    <t>77.559</t>
-  </si>
-  <si>
-    <t>77.477</t>
-  </si>
-  <si>
-    <t>77.227</t>
-  </si>
-  <si>
-    <t>76.911</t>
-  </si>
-  <si>
-    <t>76.38</t>
-  </si>
-  <si>
-    <t>75.971</t>
-  </si>
-  <si>
-    <t>75.532</t>
-  </si>
-  <si>
-    <t>75.249</t>
-  </si>
-  <si>
-    <t>75.139</t>
-  </si>
-  <si>
-    <t>75.317</t>
+    <t>77.505</t>
+  </si>
+  <si>
+    <t>77.56</t>
+  </si>
+  <si>
+    <t>77.479</t>
+  </si>
+  <si>
+    <t>77.229</t>
+  </si>
+  <si>
+    <t>76.913</t>
+  </si>
+  <si>
+    <t>76.381</t>
+  </si>
+  <si>
+    <t>75.972</t>
+  </si>
+  <si>
+    <t>75.533</t>
+  </si>
+  <si>
+    <t>75.25</t>
+  </si>
+  <si>
+    <t>75.137</t>
+  </si>
+  <si>
+    <t>75.316</t>
   </si>
   <si>
     <t>75.76899999999999</t>
   </si>
   <si>
-    <t>76.253</t>
-  </si>
-  <si>
-    <t>76.516</t>
-  </si>
-  <si>
-    <t>76.593</t>
-  </si>
-  <si>
-    <t>76.575</t>
-  </si>
-  <si>
-    <t>76.286</t>
+    <t>76.25399999999999</t>
+  </si>
+  <si>
+    <t>76.518</t>
+  </si>
+  <si>
+    <t>76.595</t>
+  </si>
+  <si>
+    <t>76.57600000000001</t>
+  </si>
+  <si>
+    <t>76.29</t>
   </si>
   <si>
     <t>76.031</t>
@@ -1885,292 +1924,289 @@
     <t>75.845</t>
   </si>
   <si>
-    <t>75.702</t>
-  </si>
-  <si>
-    <t>75.657</t>
-  </si>
-  <si>
-    <t>75.816</t>
-  </si>
-  <si>
-    <t>76.082</t>
-  </si>
-  <si>
-    <t>76.4</t>
-  </si>
-  <si>
-    <t>76.605</t>
-  </si>
-  <si>
-    <t>76.714</t>
-  </si>
-  <si>
-    <t>76.734</t>
-  </si>
-  <si>
-    <t>76.63</t>
-  </si>
-  <si>
-    <t>76.59899999999999</t>
-  </si>
-  <si>
-    <t>76.58</t>
-  </si>
-  <si>
-    <t>76.46600000000001</t>
+    <t>75.699</t>
+  </si>
+  <si>
+    <t>75.654</t>
+  </si>
+  <si>
+    <t>75.813</t>
+  </si>
+  <si>
+    <t>76.08</t>
   </si>
   <si>
     <t>76.398</t>
   </si>
   <si>
-    <t>76.331</t>
-  </si>
-  <si>
-    <t>76.387</t>
-  </si>
-  <si>
-    <t>76.664</t>
-  </si>
-  <si>
-    <t>77.033</t>
-  </si>
-  <si>
-    <t>77.51899999999999</t>
-  </si>
-  <si>
-    <t>77.887</t>
-  </si>
-  <si>
-    <t>78.133</t>
-  </si>
-  <si>
-    <t>78.2</t>
-  </si>
-  <si>
-    <t>78.17399999999999</t>
-  </si>
-  <si>
-    <t>78.173</t>
-  </si>
-  <si>
-    <t>78.116</t>
-  </si>
-  <si>
-    <t>78.202</t>
-  </si>
-  <si>
-    <t>78.208</t>
-  </si>
-  <si>
-    <t>78.352</t>
-  </si>
-  <si>
-    <t>78.704</t>
-  </si>
-  <si>
-    <t>79.212</t>
-  </si>
-  <si>
-    <t>79.704</t>
-  </si>
-  <si>
-    <t>80.066</t>
-  </si>
-  <si>
-    <t>80.319</t>
-  </si>
-  <si>
-    <t>80.342</t>
-  </si>
-  <si>
-    <t>80.306</t>
-  </si>
-  <si>
-    <t>80.171</t>
-  </si>
-  <si>
-    <t>80.08</t>
-  </si>
-  <si>
-    <t>80.029</t>
-  </si>
-  <si>
-    <t>79.994</t>
-  </si>
-  <si>
-    <t>80.081</t>
-  </si>
-  <si>
-    <t>80.373</t>
-  </si>
-  <si>
-    <t>80.695</t>
-  </si>
-  <si>
-    <t>81.07300000000001</t>
-  </si>
-  <si>
-    <t>81.416</t>
-  </si>
-  <si>
-    <t>81.65899999999999</t>
-  </si>
-  <si>
-    <t>81.743</t>
-  </si>
-  <si>
-    <t>81.73100000000001</t>
-  </si>
-  <si>
-    <t>81.635</t>
-  </si>
-  <si>
-    <t>81.517</t>
-  </si>
-  <si>
-    <t>81.431</t>
-  </si>
-  <si>
-    <t>81.403</t>
-  </si>
-  <si>
-    <t>81.669</t>
-  </si>
-  <si>
-    <t>82.12899999999999</t>
-  </si>
-  <si>
-    <t>82.60600000000001</t>
-  </si>
-  <si>
-    <t>83.053</t>
-  </si>
-  <si>
-    <t>83.42200000000001</t>
-  </si>
-  <si>
-    <t>83.649</t>
-  </si>
-  <si>
-    <t>83.706</t>
-  </si>
-  <si>
-    <t>83.633</t>
-  </si>
-  <si>
-    <t>83.561</t>
-  </si>
-  <si>
-    <t>83.494</t>
-  </si>
-  <si>
-    <t>83.53399999999999</t>
-  </si>
-  <si>
-    <t>83.6</t>
-  </si>
-  <si>
-    <t>83.915</t>
-  </si>
-  <si>
-    <t>84.324</t>
-  </si>
-  <si>
-    <t>84.868</t>
-  </si>
-  <si>
-    <t>85.402</t>
-  </si>
-  <si>
-    <t>85.845</t>
-  </si>
-  <si>
-    <t>86.154</t>
-  </si>
-  <si>
-    <t>86.314</t>
-  </si>
-  <si>
-    <t>86.411</t>
-  </si>
-  <si>
-    <t>86.635</t>
-  </si>
-  <si>
-    <t>86.852</t>
-  </si>
-  <si>
-    <t>87.167</t>
-  </si>
-  <si>
-    <t>87.37700000000001</t>
-  </si>
-  <si>
-    <t>87.881</t>
-  </si>
-  <si>
-    <t>88.56200000000001</t>
-  </si>
-  <si>
-    <t>89.37799999999999</t>
-  </si>
-  <si>
-    <t>90.198</t>
-  </si>
-  <si>
-    <t>90.86200000000001</t>
-  </si>
-  <si>
-    <t>91.41</t>
-  </si>
-  <si>
-    <t>91.755</t>
-  </si>
-  <si>
-    <t>92.00299999999999</t>
-  </si>
-  <si>
-    <t>92.20100000000001</t>
-  </si>
-  <si>
-    <t>92.448</t>
-  </si>
-  <si>
-    <t>92.71799999999999</t>
-  </si>
-  <si>
-    <t>92.984</t>
-  </si>
-  <si>
-    <t>93.61399999999999</t>
-  </si>
-  <si>
-    <t>94.44</t>
-  </si>
-  <si>
-    <t>95.365</t>
-  </si>
-  <si>
-    <t>96.368</t>
-  </si>
-  <si>
-    <t>97.196</t>
-  </si>
-  <si>
-    <t>97.902</t>
-  </si>
-  <si>
-    <t>98.405</t>
-  </si>
-  <si>
-    <t>98.838</t>
-  </si>
-  <si>
-    <t>99.155</t>
-  </si>
-  <si>
-    <t>99.54899999999999</t>
+    <t>76.602</t>
+  </si>
+  <si>
+    <t>76.711</t>
+  </si>
+  <si>
+    <t>76.73100000000001</t>
+  </si>
+  <si>
+    <t>76.628</t>
+  </si>
+  <si>
+    <t>76.598</t>
+  </si>
+  <si>
+    <t>76.579</t>
+  </si>
+  <si>
+    <t>76.464</t>
+  </si>
+  <si>
+    <t>76.395</t>
+  </si>
+  <si>
+    <t>76.328</t>
+  </si>
+  <si>
+    <t>76.383</t>
+  </si>
+  <si>
+    <t>76.661</t>
+  </si>
+  <si>
+    <t>77.03</t>
+  </si>
+  <si>
+    <t>77.516</t>
+  </si>
+  <si>
+    <t>77.885</t>
+  </si>
+  <si>
+    <t>78.131</t>
+  </si>
+  <si>
+    <t>78.19800000000001</t>
+  </si>
+  <si>
+    <t>78.172</t>
+  </si>
+  <si>
+    <t>78.17</t>
+  </si>
+  <si>
+    <t>78.11399999999999</t>
+  </si>
+  <si>
+    <t>78.199</t>
+  </si>
+  <si>
+    <t>78.205</t>
+  </si>
+  <si>
+    <t>78.35</t>
+  </si>
+  <si>
+    <t>78.702</t>
+  </si>
+  <si>
+    <t>79.209</t>
+  </si>
+  <si>
+    <t>79.702</t>
+  </si>
+  <si>
+    <t>80.064</t>
+  </si>
+  <si>
+    <t>80.317</t>
+  </si>
+  <si>
+    <t>80.34</t>
+  </si>
+  <si>
+    <t>80.304</t>
+  </si>
+  <si>
+    <t>80.17</t>
+  </si>
+  <si>
+    <t>80.079</t>
+  </si>
+  <si>
+    <t>80.027</t>
+  </si>
+  <si>
+    <t>79.993</t>
+  </si>
+  <si>
+    <t>80.37</t>
+  </si>
+  <si>
+    <t>80.692</t>
+  </si>
+  <si>
+    <t>81.069</t>
+  </si>
+  <si>
+    <t>81.41199999999999</t>
+  </si>
+  <si>
+    <t>81.655</t>
+  </si>
+  <si>
+    <t>81.73899999999999</t>
+  </si>
+  <si>
+    <t>81.72800000000001</t>
+  </si>
+  <si>
+    <t>81.632</t>
+  </si>
+  <si>
+    <t>81.514</t>
+  </si>
+  <si>
+    <t>81.428</t>
+  </si>
+  <si>
+    <t>81.4</t>
+  </si>
+  <si>
+    <t>81.666</t>
+  </si>
+  <si>
+    <t>82.126</t>
+  </si>
+  <si>
+    <t>82.603</t>
+  </si>
+  <si>
+    <t>83.04899999999999</t>
+  </si>
+  <si>
+    <t>83.419</t>
+  </si>
+  <si>
+    <t>83.646</t>
+  </si>
+  <si>
+    <t>83.70299999999999</t>
+  </si>
+  <si>
+    <t>83.63</t>
+  </si>
+  <si>
+    <t>83.557</t>
+  </si>
+  <si>
+    <t>83.491</t>
+  </si>
+  <si>
+    <t>83.531</t>
+  </si>
+  <si>
+    <t>83.59700000000001</t>
+  </si>
+  <si>
+    <t>83.912</t>
+  </si>
+  <si>
+    <t>84.322</t>
+  </si>
+  <si>
+    <t>84.865</t>
+  </si>
+  <si>
+    <t>85.399</t>
+  </si>
+  <si>
+    <t>85.84200000000001</t>
+  </si>
+  <si>
+    <t>86.15100000000001</t>
+  </si>
+  <si>
+    <t>86.311</t>
+  </si>
+  <si>
+    <t>86.40899999999999</t>
+  </si>
+  <si>
+    <t>86.633</t>
+  </si>
+  <si>
+    <t>86.84899999999999</t>
+  </si>
+  <si>
+    <t>87.164</t>
+  </si>
+  <si>
+    <t>87.374</t>
+  </si>
+  <si>
+    <t>87.87799999999999</t>
+  </si>
+  <si>
+    <t>88.55799999999999</t>
+  </si>
+  <si>
+    <t>89.374</t>
+  </si>
+  <si>
+    <t>90.195</t>
+  </si>
+  <si>
+    <t>90.86</t>
+  </si>
+  <si>
+    <t>91.40700000000001</t>
+  </si>
+  <si>
+    <t>91.75299999999999</t>
+  </si>
+  <si>
+    <t>92.001</t>
+  </si>
+  <si>
+    <t>92.199</t>
+  </si>
+  <si>
+    <t>92.445</t>
+  </si>
+  <si>
+    <t>92.715</t>
+  </si>
+  <si>
+    <t>92.98100000000001</t>
+  </si>
+  <si>
+    <t>93.611</t>
+  </si>
+  <si>
+    <t>94.436</t>
+  </si>
+  <si>
+    <t>95.361</t>
+  </si>
+  <si>
+    <t>96.365</t>
+  </si>
+  <si>
+    <t>97.193</t>
+  </si>
+  <si>
+    <t>97.899</t>
+  </si>
+  <si>
+    <t>98.40100000000001</t>
+  </si>
+  <si>
+    <t>98.833</t>
+  </si>
+  <si>
+    <t>99.15</t>
+  </si>
+  <si>
+    <t>99.545</t>
   </si>
   <si>
     <t>100.00</t>
@@ -2197,34 +2233,34 @@
     <t>106.521</t>
   </si>
   <si>
-    <t>107.134</t>
-  </si>
-  <si>
-    <t>107.727</t>
-  </si>
-  <si>
-    <t>108.289</t>
-  </si>
-  <si>
-    <t>108.79</t>
-  </si>
-  <si>
-    <t>109.213</t>
-  </si>
-  <si>
-    <t>109.64200000000001</t>
+    <t>107.135</t>
+  </si>
+  <si>
+    <t>107.728</t>
+  </si>
+  <si>
+    <t>108.291</t>
+  </si>
+  <si>
+    <t>108.791</t>
+  </si>
+  <si>
+    <t>109.214</t>
+  </si>
+  <si>
+    <t>109.641</t>
   </si>
   <si>
     <t>110.39299999999999</t>
   </si>
   <si>
-    <t>111.24600000000001</t>
-  </si>
-  <si>
-    <t>112.20100000000001</t>
-  </si>
-  <si>
-    <t>113.271</t>
+    <t>111.24700000000001</t>
+  </si>
+  <si>
+    <t>112.20200000000001</t>
+  </si>
+  <si>
+    <t>113.272</t>
   </si>
   <si>
     <t>114.226</t>
@@ -2233,25 +2269,25 @@
     <t>114.98700000000001</t>
   </si>
   <si>
-    <t>115.463</t>
-  </si>
-  <si>
-    <t>115.679</t>
-  </si>
-  <si>
-    <t>115.836</t>
-  </si>
-  <si>
-    <t>116.053</t>
+    <t>115.464</t>
+  </si>
+  <si>
+    <t>115.68</t>
+  </si>
+  <si>
+    <t>115.837</t>
+  </si>
+  <si>
+    <t>116.054</t>
   </si>
   <si>
     <t>116.436</t>
   </si>
   <si>
-    <t>116.917</t>
-  </si>
-  <si>
-    <t>117.93</t>
+    <t>116.916</t>
+  </si>
+  <si>
+    <t>117.929</t>
   </si>
   <si>
     <t>119.209</t>
@@ -2260,34 +2296,34 @@
     <t>120.788</t>
   </si>
   <si>
-    <t>122.33200000000001</t>
-  </si>
-  <si>
-    <t>123.685</t>
-  </si>
-  <si>
-    <t>124.728</t>
-  </si>
-  <si>
-    <t>125.492</t>
-  </si>
-  <si>
-    <t>126.135</t>
-  </si>
-  <si>
-    <t>126.641</t>
+    <t>122.333</t>
+  </si>
+  <si>
+    <t>123.68700000000001</t>
+  </si>
+  <si>
+    <t>124.73</t>
+  </si>
+  <si>
+    <t>125.494</t>
+  </si>
+  <si>
+    <t>126.13600000000001</t>
+  </si>
+  <si>
+    <t>126.64200000000001</t>
   </si>
   <si>
     <t>127.15</t>
   </si>
   <si>
-    <t>127.65100000000001</t>
+    <t>127.652</t>
   </si>
   <si>
     <t>128.326</t>
   </si>
   <si>
-    <t>129.309</t>
+    <t>129.308</t>
   </si>
   <si>
     <t>130.488</t>
@@ -2296,19 +2332,19 @@
     <t>131.839</t>
   </si>
   <si>
-    <t>133.224</t>
+    <t>133.225</t>
   </si>
   <si>
     <t>134.64600000000002</t>
   </si>
   <si>
-    <t>135.964</t>
-  </si>
-  <si>
-    <t>137.075</t>
-  </si>
-  <si>
-    <t>137.975</t>
+    <t>135.965</t>
+  </si>
+  <si>
+    <t>137.076</t>
+  </si>
+  <si>
+    <t>137.976</t>
   </si>
   <si>
     <t>138.765</t>
@@ -2317,34 +2353,34 @@
     <t>139.628</t>
   </si>
   <si>
-    <t>140.707</t>
-  </si>
-  <si>
-    <t>142.03</t>
-  </si>
-  <si>
-    <t>144.08100000000002</t>
+    <t>140.705</t>
+  </si>
+  <si>
+    <t>142.029</t>
+  </si>
+  <si>
+    <t>144.08</t>
   </si>
   <si>
     <t>146.179</t>
   </si>
   <si>
-    <t>148.333</t>
-  </si>
-  <si>
-    <t>150.516</t>
-  </si>
-  <si>
-    <t>152.335</t>
-  </si>
-  <si>
-    <t>153.812</t>
-  </si>
-  <si>
-    <t>155.107</t>
-  </si>
-  <si>
-    <t>156.298</t>
+    <t>148.334</t>
+  </si>
+  <si>
+    <t>150.518</t>
+  </si>
+  <si>
+    <t>152.33700000000002</t>
+  </si>
+  <si>
+    <t>153.814</t>
+  </si>
+  <si>
+    <t>155.108</t>
+  </si>
+  <si>
+    <t>156.299</t>
   </si>
   <si>
     <t>157.496</t>
@@ -2371,7 +2407,7 @@
     <t>172.015</t>
   </si>
   <si>
-    <t>174.09599999999998</t>
+    <t>174.097</t>
   </si>
   <si>
     <t>175.922</t>
@@ -2383,82 +2419,82 @@
     <t>178.752</t>
   </si>
   <si>
-    <t>179.675</t>
-  </si>
-  <si>
-    <t>180.109</t>
-  </si>
-  <si>
-    <t>180.829</t>
-  </si>
-  <si>
-    <t>181.50099999999998</t>
-  </si>
-  <si>
-    <t>182.75</t>
-  </si>
-  <si>
-    <t>183.649</t>
-  </si>
-  <si>
-    <t>184.38099999999997</t>
-  </si>
-  <si>
-    <t>184.548</t>
-  </si>
-  <si>
-    <t>184.608</t>
-  </si>
-  <si>
-    <t>184.40599999999998</t>
-  </si>
-  <si>
-    <t>184.2</t>
-  </si>
-  <si>
-    <t>184.05599999999998</t>
-  </si>
-  <si>
-    <t>183.63400000000001</t>
-  </si>
-  <si>
-    <t>183.232</t>
-  </si>
-  <si>
-    <t>182.72099999999998</t>
-  </si>
-  <si>
-    <t>182.47299999999998</t>
-  </si>
-  <si>
-    <t>182.195</t>
+    <t>179.674</t>
+  </si>
+  <si>
+    <t>180.107</t>
+  </si>
+  <si>
+    <t>180.828</t>
+  </si>
+  <si>
+    <t>181.5</t>
+  </si>
+  <si>
+    <t>182.74900000000002</t>
+  </si>
+  <si>
+    <t>183.648</t>
+  </si>
+  <si>
+    <t>184.38</t>
+  </si>
+  <si>
+    <t>184.547</t>
+  </si>
+  <si>
+    <t>184.607</t>
+  </si>
+  <si>
+    <t>184.40400000000002</t>
+  </si>
+  <si>
+    <t>184.19799999999998</t>
+  </si>
+  <si>
+    <t>184.055</t>
+  </si>
+  <si>
+    <t>183.63299999999998</t>
+  </si>
+  <si>
+    <t>183.231</t>
+  </si>
+  <si>
+    <t>182.72</t>
+  </si>
+  <si>
+    <t>182.472</t>
+  </si>
+  <si>
+    <t>182.19400000000002</t>
   </si>
   <si>
     <t>182.132</t>
   </si>
   <si>
-    <t>181.886</t>
-  </si>
-  <si>
-    <t>181.542</t>
-  </si>
-  <si>
-    <t>180.99599999999998</t>
-  </si>
-  <si>
-    <t>180.238</t>
-  </si>
-  <si>
-    <t>179.125</t>
-  </si>
-  <si>
-    <t>177.532</t>
-  </si>
-  <si>
-    <t>175.16299999999998</t>
-  </si>
-  <si>
-    <t>173.33900000000003</t>
+    <t>181.885</t>
+  </si>
+  <si>
+    <t>181.54</t>
+  </si>
+  <si>
+    <t>180.993</t>
+  </si>
+  <si>
+    <t>180.235</t>
+  </si>
+  <si>
+    <t>179.122</t>
+  </si>
+  <si>
+    <t>177.53</t>
+  </si>
+  <si>
+    <t>175.162</t>
+  </si>
+  <si>
+    <t>173.338</t>
   </si>
   <si>
     <t>171.079</t>
@@ -2470,28 +2506,28 @@
     <t>167.905</t>
   </si>
   <si>
-    <t>167.324</t>
-  </si>
-  <si>
-    <t>167.021</t>
-  </si>
-  <si>
-    <t>166.53900000000002</t>
-  </si>
-  <si>
-    <t>165.71599999999998</t>
-  </si>
-  <si>
-    <t>164.28099999999998</t>
-  </si>
-  <si>
-    <t>161.915</t>
+    <t>167.32299999999998</t>
+  </si>
+  <si>
+    <t>167.02</t>
+  </si>
+  <si>
+    <t>166.537</t>
+  </si>
+  <si>
+    <t>165.71400000000003</t>
+  </si>
+  <si>
+    <t>164.27900000000002</t>
+  </si>
+  <si>
+    <t>161.91299999999998</t>
   </si>
   <si>
     <t>159.164</t>
   </si>
   <si>
-    <t>156.071</t>
+    <t>156.072</t>
   </si>
   <si>
     <t>152.54399999999998</t>
@@ -2503,31 +2539,31 @@
     <t>147.616</t>
   </si>
   <si>
-    <t>146.513</t>
-  </si>
-  <si>
-    <t>146.941</t>
-  </si>
-  <si>
-    <t>148.16899999999998</t>
-  </si>
-  <si>
-    <t>149.795</t>
-  </si>
-  <si>
-    <t>150.747</t>
-  </si>
-  <si>
-    <t>150.666</t>
+    <t>146.514</t>
+  </si>
+  <si>
+    <t>146.94299999999998</t>
+  </si>
+  <si>
+    <t>148.171</t>
+  </si>
+  <si>
+    <t>149.797</t>
+  </si>
+  <si>
+    <t>150.748</t>
+  </si>
+  <si>
+    <t>150.667</t>
   </si>
   <si>
     <t>149.625</t>
   </si>
   <si>
-    <t>148.583</t>
-  </si>
-  <si>
-    <t>147.938</t>
+    <t>148.582</t>
+  </si>
+  <si>
+    <t>147.937</t>
   </si>
   <si>
     <t>146.664</t>
@@ -2536,409 +2572,448 @@
     <t>145.003</t>
   </si>
   <si>
-    <t>143.054</t>
+    <t>143.055</t>
   </si>
   <si>
     <t>143.597</t>
   </si>
   <si>
-    <t>145.403</t>
-  </si>
-  <si>
-    <t>147.039</t>
-  </si>
-  <si>
-    <t>147.704</t>
+    <t>145.40200000000002</t>
+  </si>
+  <si>
+    <t>147.037</t>
+  </si>
+  <si>
+    <t>147.702</t>
   </si>
   <si>
     <t>147.563</t>
   </si>
   <si>
-    <t>146.42700000000002</t>
-  </si>
-  <si>
-    <t>144.607</t>
+    <t>146.428</t>
+  </si>
+  <si>
+    <t>144.608</t>
   </si>
   <si>
     <t>143.127</t>
   </si>
   <si>
-    <t>141.82</t>
-  </si>
-  <si>
-    <t>140.635</t>
-  </si>
-  <si>
-    <t>139.047</t>
-  </si>
-  <si>
-    <t>137.745</t>
-  </si>
-  <si>
-    <t>137.795</t>
-  </si>
-  <si>
-    <t>139.16299999999998</t>
-  </si>
-  <si>
-    <t>140.694</t>
-  </si>
-  <si>
-    <t>141.946</t>
-  </si>
-  <si>
-    <t>142.344</t>
-  </si>
-  <si>
-    <t>141.787</t>
+    <t>141.819</t>
+  </si>
+  <si>
+    <t>140.63299999999998</t>
+  </si>
+  <si>
+    <t>139.045</t>
+  </si>
+  <si>
+    <t>137.74200000000002</t>
+  </si>
+  <si>
+    <t>137.793</t>
+  </si>
+  <si>
+    <t>139.161</t>
+  </si>
+  <si>
+    <t>140.69299999999998</t>
+  </si>
+  <si>
+    <t>141.945</t>
+  </si>
+  <si>
+    <t>142.341</t>
+  </si>
+  <si>
+    <t>141.785</t>
   </si>
   <si>
     <t>140.16899999999998</t>
   </si>
   <si>
-    <t>138.41</t>
-  </si>
-  <si>
-    <t>136.665</t>
-  </si>
-  <si>
-    <t>135.167</t>
-  </si>
-  <si>
-    <t>134.16899999999998</t>
-  </si>
-  <si>
-    <t>134.0</t>
-  </si>
-  <si>
-    <t>135.871</t>
-  </si>
-  <si>
-    <t>138.47899999999998</t>
-  </si>
-  <si>
-    <t>141.055</t>
-  </si>
-  <si>
-    <t>143.174</t>
-  </si>
-  <si>
-    <t>144.285</t>
-  </si>
-  <si>
-    <t>144.707</t>
-  </si>
-  <si>
-    <t>144.359</t>
-  </si>
-  <si>
-    <t>143.968</t>
-  </si>
-  <si>
-    <t>143.961</t>
-  </si>
-  <si>
-    <t>143.869</t>
-  </si>
-  <si>
-    <t>144.315</t>
-  </si>
-  <si>
-    <t>145.167</t>
-  </si>
-  <si>
-    <t>147.969</t>
-  </si>
-  <si>
-    <t>150.97799999999998</t>
-  </si>
-  <si>
-    <t>153.87</t>
-  </si>
-  <si>
-    <t>156.439</t>
-  </si>
-  <si>
-    <t>158.3</t>
-  </si>
-  <si>
-    <t>159.408</t>
-  </si>
-  <si>
-    <t>159.685</t>
-  </si>
-  <si>
-    <t>159.567</t>
-  </si>
-  <si>
-    <t>159.373</t>
-  </si>
-  <si>
-    <t>159.291</t>
-  </si>
-  <si>
-    <t>159.381</t>
-  </si>
-  <si>
-    <t>159.885</t>
-  </si>
-  <si>
-    <t>161.203</t>
-  </si>
-  <si>
-    <t>162.983</t>
-  </si>
-  <si>
-    <t>164.697</t>
-  </si>
-  <si>
-    <t>166.22400000000002</t>
-  </si>
-  <si>
-    <t>167.144</t>
-  </si>
-  <si>
-    <t>167.459</t>
-  </si>
-  <si>
-    <t>167.253</t>
-  </si>
-  <si>
-    <t>166.923</t>
-  </si>
-  <si>
-    <t>166.674</t>
-  </si>
-  <si>
-    <t>166.482</t>
-  </si>
-  <si>
-    <t>166.278</t>
-  </si>
-  <si>
-    <t>166.665</t>
-  </si>
-  <si>
-    <t>168.122</t>
-  </si>
-  <si>
-    <t>169.997</t>
-  </si>
-  <si>
-    <t>171.873</t>
-  </si>
-  <si>
-    <t>173.47</t>
-  </si>
-  <si>
-    <t>174.513</t>
-  </si>
-  <si>
-    <t>174.957</t>
-  </si>
-  <si>
-    <t>175.06799999999998</t>
-  </si>
-  <si>
-    <t>175.077</t>
-  </si>
-  <si>
-    <t>175.175</t>
-  </si>
-  <si>
-    <t>175.15099999999998</t>
-  </si>
-  <si>
-    <t>175.07</t>
-  </si>
-  <si>
-    <t>175.312</t>
-  </si>
-  <si>
-    <t>176.63299999999998</t>
-  </si>
-  <si>
-    <t>178.528</t>
-  </si>
-  <si>
-    <t>180.377</t>
-  </si>
-  <si>
-    <t>181.949</t>
-  </si>
-  <si>
-    <t>183.05200000000002</t>
-  </si>
-  <si>
-    <t>183.69</t>
-  </si>
-  <si>
-    <t>183.982</t>
-  </si>
-  <si>
-    <t>184.06099999999998</t>
-  </si>
-  <si>
-    <t>184.27599999999998</t>
-  </si>
-  <si>
-    <t>184.45</t>
-  </si>
-  <si>
-    <t>184.708</t>
-  </si>
-  <si>
-    <t>185.079</t>
-  </si>
-  <si>
-    <t>186.58</t>
-  </si>
-  <si>
-    <t>188.581</t>
-  </si>
-  <si>
-    <t>190.576</t>
-  </si>
-  <si>
-    <t>192.31400000000002</t>
-  </si>
-  <si>
-    <t>193.56900000000002</t>
-  </si>
-  <si>
-    <t>194.40900000000002</t>
-  </si>
-  <si>
-    <t>194.87900000000002</t>
-  </si>
-  <si>
-    <t>195.144</t>
-  </si>
-  <si>
-    <t>195.50799999999998</t>
-  </si>
-  <si>
-    <t>195.903</t>
-  </si>
-  <si>
-    <t>196.173</t>
-  </si>
-  <si>
-    <t>196.963</t>
-  </si>
-  <si>
-    <t>198.63</t>
-  </si>
-  <si>
-    <t>200.671</t>
-  </si>
-  <si>
-    <t>202.50799999999998</t>
-  </si>
-  <si>
-    <t>204.09900000000002</t>
-  </si>
-  <si>
-    <t>205.007</t>
-  </si>
-  <si>
-    <t>205.385</t>
-  </si>
-  <si>
-    <t>205.433</t>
-  </si>
-  <si>
-    <t>205.174</t>
-  </si>
-  <si>
-    <t>204.77200000000002</t>
-  </si>
-  <si>
-    <t>204.29</t>
-  </si>
-  <si>
-    <t>204.528</t>
-  </si>
-  <si>
-    <t>205.87099999999998</t>
-  </si>
-  <si>
-    <t>207.771</t>
-  </si>
-  <si>
-    <t>209.43200000000002</t>
-  </si>
-  <si>
-    <t>210.675</t>
-  </si>
-  <si>
-    <t>211.43200000000002</t>
-  </si>
-  <si>
-    <t>211.795</t>
-  </si>
-  <si>
-    <t>211.97799999999998</t>
-  </si>
-  <si>
-    <t>212.077</t>
-  </si>
-  <si>
-    <t>212.22</t>
-  </si>
-  <si>
-    <t>212.347</t>
-  </si>
-  <si>
-    <t>212.484</t>
-  </si>
-  <si>
-    <t>213.293</t>
-  </si>
-  <si>
-    <t>215.27700000000002</t>
-  </si>
-  <si>
-    <t>217.34400000000002</t>
-  </si>
-  <si>
-    <t>218.604</t>
-  </si>
-  <si>
-    <t>219.923</t>
-  </si>
-  <si>
-    <t>221.674</t>
-  </si>
-  <si>
-    <t>224.15</t>
-  </si>
-  <si>
-    <t>226.91</t>
-  </si>
-  <si>
-    <t>229.928</t>
-  </si>
-  <si>
-    <t>232.43599999999998</t>
-  </si>
-  <si>
-    <t>234.49099999999999</t>
-  </si>
-  <si>
-    <t>236.454</t>
-  </si>
-  <si>
-    <t>239.196</t>
-  </si>
-  <si>
-    <t>243.90599999999998</t>
-  </si>
-  <si>
-    <t>249.585</t>
-  </si>
-  <si>
-    <t>254.92</t>
+    <t>138.412</t>
+  </si>
+  <si>
+    <t>136.668</t>
+  </si>
+  <si>
+    <t>135.16899999999998</t>
+  </si>
+  <si>
+    <t>134.167</t>
+  </si>
+  <si>
+    <t>133.993</t>
+  </si>
+  <si>
+    <t>135.862</t>
+  </si>
+  <si>
+    <t>138.472</t>
+  </si>
+  <si>
+    <t>141.05100000000002</t>
+  </si>
+  <si>
+    <t>143.171</t>
+  </si>
+  <si>
+    <t>144.283</t>
+  </si>
+  <si>
+    <t>144.705</t>
+  </si>
+  <si>
+    <t>144.357</t>
+  </si>
+  <si>
+    <t>143.967</t>
+  </si>
+  <si>
+    <t>143.96</t>
+  </si>
+  <si>
+    <t>143.86700000000002</t>
+  </si>
+  <si>
+    <t>144.312</t>
+  </si>
+  <si>
+    <t>145.16299999999998</t>
+  </si>
+  <si>
+    <t>147.96200000000002</t>
+  </si>
+  <si>
+    <t>150.97</t>
+  </si>
+  <si>
+    <t>153.863</t>
+  </si>
+  <si>
+    <t>156.433</t>
+  </si>
+  <si>
+    <t>158.296</t>
+  </si>
+  <si>
+    <t>159.404</t>
+  </si>
+  <si>
+    <t>159.68200000000002</t>
+  </si>
+  <si>
+    <t>159.562</t>
+  </si>
+  <si>
+    <t>159.366</t>
+  </si>
+  <si>
+    <t>159.284</t>
+  </si>
+  <si>
+    <t>159.374</t>
+  </si>
+  <si>
+    <t>159.878</t>
+  </si>
+  <si>
+    <t>161.194</t>
+  </si>
+  <si>
+    <t>162.972</t>
+  </si>
+  <si>
+    <t>164.68599999999998</t>
+  </si>
+  <si>
+    <t>166.215</t>
+  </si>
+  <si>
+    <t>167.14</t>
+  </si>
+  <si>
+    <t>167.455</t>
+  </si>
+  <si>
+    <t>167.24599999999998</t>
+  </si>
+  <si>
+    <t>166.915</t>
+  </si>
+  <si>
+    <t>166.66299999999998</t>
+  </si>
+  <si>
+    <t>166.467</t>
+  </si>
+  <si>
+    <t>166.25799999999998</t>
+  </si>
+  <si>
+    <t>166.642</t>
+  </si>
+  <si>
+    <t>168.09799999999998</t>
+  </si>
+  <si>
+    <t>169.977</t>
+  </si>
+  <si>
+    <t>171.856</t>
+  </si>
+  <si>
+    <t>173.457</t>
+  </si>
+  <si>
+    <t>174.502</t>
+  </si>
+  <si>
+    <t>174.946</t>
+  </si>
+  <si>
+    <t>175.055</t>
+  </si>
+  <si>
+    <t>175.062</t>
+  </si>
+  <si>
+    <t>175.157</t>
+  </si>
+  <si>
+    <t>175.13299999999998</t>
+  </si>
+  <si>
+    <t>175.301</t>
+  </si>
+  <si>
+    <t>176.61900000000003</t>
+  </si>
+  <si>
+    <t>178.50900000000001</t>
+  </si>
+  <si>
+    <t>180.354</t>
+  </si>
+  <si>
+    <t>181.926</t>
+  </si>
+  <si>
+    <t>183.03</t>
+  </si>
+  <si>
+    <t>183.668</t>
+  </si>
+  <si>
+    <t>183.958</t>
+  </si>
+  <si>
+    <t>184.033</t>
+  </si>
+  <si>
+    <t>184.24599999999998</t>
+  </si>
+  <si>
+    <t>184.419</t>
+  </si>
+  <si>
+    <t>184.672</t>
+  </si>
+  <si>
+    <t>185.04</t>
+  </si>
+  <si>
+    <t>186.546</t>
+  </si>
+  <si>
+    <t>188.55599999999998</t>
+  </si>
+  <si>
+    <t>190.554</t>
+  </si>
+  <si>
+    <t>192.28799999999998</t>
+  </si>
+  <si>
+    <t>193.53900000000002</t>
+  </si>
+  <si>
+    <t>194.375</t>
+  </si>
+  <si>
+    <t>194.84400000000002</t>
+  </si>
+  <si>
+    <t>195.107</t>
+  </si>
+  <si>
+    <t>195.47</t>
+  </si>
+  <si>
+    <t>195.864</t>
+  </si>
+  <si>
+    <t>196.13400000000001</t>
+  </si>
+  <si>
+    <t>196.924</t>
+  </si>
+  <si>
+    <t>198.593</t>
+  </si>
+  <si>
+    <t>200.636</t>
+  </si>
+  <si>
+    <t>202.47400000000002</t>
+  </si>
+  <si>
+    <t>204.06599999999997</t>
+  </si>
+  <si>
+    <t>204.97400000000002</t>
+  </si>
+  <si>
+    <t>205.352</t>
+  </si>
+  <si>
+    <t>205.39700000000002</t>
+  </si>
+  <si>
+    <t>205.391</t>
+  </si>
+  <si>
+    <t>205.12900000000002</t>
+  </si>
+  <si>
+    <t>204.722</t>
+  </si>
+  <si>
+    <t>204.233</t>
+  </si>
+  <si>
+    <t>204.467</t>
+  </si>
+  <si>
+    <t>205.81599999999997</t>
+  </si>
+  <si>
+    <t>207.729</t>
+  </si>
+  <si>
+    <t>209.393</t>
+  </si>
+  <si>
+    <t>210.62900000000002</t>
+  </si>
+  <si>
+    <t>211.38099999999997</t>
+  </si>
+  <si>
+    <t>211.74</t>
+  </si>
+  <si>
+    <t>211.92</t>
+  </si>
+  <si>
+    <t>212.014</t>
+  </si>
+  <si>
+    <t>212.15400000000002</t>
+  </si>
+  <si>
+    <t>212.283</t>
+  </si>
+  <si>
+    <t>212.435</t>
+  </si>
+  <si>
+    <t>213.25</t>
+  </si>
+  <si>
+    <t>215.225</t>
+  </si>
+  <si>
+    <t>217.27200000000002</t>
+  </si>
+  <si>
+    <t>218.523</t>
+  </si>
+  <si>
+    <t>219.852</t>
+  </si>
+  <si>
+    <t>221.61</t>
+  </si>
+  <si>
+    <t>224.092</t>
+  </si>
+  <si>
+    <t>226.84799999999998</t>
+  </si>
+  <si>
+    <t>229.863</t>
+  </si>
+  <si>
+    <t>232.37400000000002</t>
+  </si>
+  <si>
+    <t>234.429</t>
+  </si>
+  <si>
+    <t>236.515</t>
+  </si>
+  <si>
+    <t>239.292</t>
+  </si>
+  <si>
+    <t>244.297</t>
+  </si>
+  <si>
+    <t>249.90099999999998</t>
+  </si>
+  <si>
+    <t>255.52900000000002</t>
+  </si>
+  <si>
+    <t>261.256</t>
+  </si>
+  <si>
+    <t>265.59</t>
+  </si>
+  <si>
+    <t>268.85900000000004</t>
+  </si>
+  <si>
+    <t>271.508</t>
+  </si>
+  <si>
+    <t>273.715</t>
+  </si>
+  <si>
+    <t>276.089</t>
+  </si>
+  <si>
+    <t>278.66700000000003</t>
+  </si>
+  <si>
+    <t>282.032</t>
+  </si>
+  <si>
+    <t>287.276</t>
+  </si>
+  <si>
+    <t>294.71</t>
+  </si>
+  <si>
+    <t>301.486</t>
+  </si>
+  <si>
+    <t>306.375</t>
+  </si>
+  <si>
+    <t>308.183</t>
   </si>
 </sst>
 </file>
@@ -3296,7 +3371,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E558"/>
+  <dimension ref="A1:E571"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3333,7 +3408,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3350,7 +3425,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3367,7 +3442,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3384,7 +3459,7 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3401,7 +3476,7 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3418,7 +3493,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3435,7 +3510,7 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3452,7 +3527,7 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3469,7 +3544,7 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3486,7 +3561,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3503,7 +3578,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3520,7 +3595,7 @@
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3537,7 +3612,7 @@
         <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3554,7 +3629,7 @@
         <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3571,7 +3646,7 @@
         <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3588,7 +3663,7 @@
         <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3605,7 +3680,7 @@
         <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3622,7 +3697,7 @@
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3639,7 +3714,7 @@
         <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3656,7 +3731,7 @@
         <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3673,7 +3748,7 @@
         <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3690,7 +3765,7 @@
         <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3707,7 +3782,7 @@
         <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3724,7 +3799,7 @@
         <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3741,7 +3816,7 @@
         <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3758,7 +3833,7 @@
         <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3775,7 +3850,7 @@
         <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3792,7 +3867,7 @@
         <v>32</v>
       </c>
       <c r="E29" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3809,7 +3884,7 @@
         <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3826,7 +3901,7 @@
         <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3843,7 +3918,7 @@
         <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3860,7 +3935,7 @@
         <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3877,7 +3952,7 @@
         <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3894,7 +3969,7 @@
         <v>38</v>
       </c>
       <c r="E35" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3911,7 +3986,7 @@
         <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3928,7 +4003,7 @@
         <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3945,7 +4020,7 @@
         <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3962,7 +4037,7 @@
         <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3979,7 +4054,7 @@
         <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3996,7 +4071,7 @@
         <v>44</v>
       </c>
       <c r="E41" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -4013,7 +4088,7 @@
         <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -4030,7 +4105,7 @@
         <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -4047,7 +4122,7 @@
         <v>47</v>
       </c>
       <c r="E44" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -4064,7 +4139,7 @@
         <v>48</v>
       </c>
       <c r="E45" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -4081,7 +4156,7 @@
         <v>49</v>
       </c>
       <c r="E46" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -4098,7 +4173,7 @@
         <v>50</v>
       </c>
       <c r="E47" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -4115,7 +4190,7 @@
         <v>51</v>
       </c>
       <c r="E48" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -4132,7 +4207,7 @@
         <v>52</v>
       </c>
       <c r="E49" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -4149,7 +4224,7 @@
         <v>53</v>
       </c>
       <c r="E50" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -4166,7 +4241,7 @@
         <v>54</v>
       </c>
       <c r="E51" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -4183,7 +4258,7 @@
         <v>55</v>
       </c>
       <c r="E52" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -4200,7 +4275,7 @@
         <v>56</v>
       </c>
       <c r="E53" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -4217,7 +4292,7 @@
         <v>57</v>
       </c>
       <c r="E54" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -4234,7 +4309,7 @@
         <v>58</v>
       </c>
       <c r="E55" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -4251,7 +4326,7 @@
         <v>59</v>
       </c>
       <c r="E56" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -4268,7 +4343,7 @@
         <v>60</v>
       </c>
       <c r="E57" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -4285,7 +4360,7 @@
         <v>61</v>
       </c>
       <c r="E58" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -4302,7 +4377,7 @@
         <v>62</v>
       </c>
       <c r="E59" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -4319,7 +4394,7 @@
         <v>63</v>
       </c>
       <c r="E60" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -4336,7 +4411,7 @@
         <v>64</v>
       </c>
       <c r="E61" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -4353,7 +4428,7 @@
         <v>65</v>
       </c>
       <c r="E62" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -4370,7 +4445,7 @@
         <v>66</v>
       </c>
       <c r="E63" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -4387,7 +4462,7 @@
         <v>67</v>
       </c>
       <c r="E64" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -4404,7 +4479,7 @@
         <v>68</v>
       </c>
       <c r="E65" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -4421,7 +4496,7 @@
         <v>69</v>
       </c>
       <c r="E66" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -4438,7 +4513,7 @@
         <v>70</v>
       </c>
       <c r="E67" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -4455,7 +4530,7 @@
         <v>71</v>
       </c>
       <c r="E68" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -4472,7 +4547,7 @@
         <v>72</v>
       </c>
       <c r="E69" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -4489,7 +4564,7 @@
         <v>73</v>
       </c>
       <c r="E70" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -4506,7 +4581,7 @@
         <v>74</v>
       </c>
       <c r="E71" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -4523,7 +4598,7 @@
         <v>75</v>
       </c>
       <c r="E72" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -4540,7 +4615,7 @@
         <v>76</v>
       </c>
       <c r="E73" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4557,7 +4632,7 @@
         <v>77</v>
       </c>
       <c r="E74" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4574,7 +4649,7 @@
         <v>78</v>
       </c>
       <c r="E75" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4591,7 +4666,7 @@
         <v>79</v>
       </c>
       <c r="E76" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4608,7 +4683,7 @@
         <v>80</v>
       </c>
       <c r="E77" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4625,7 +4700,7 @@
         <v>81</v>
       </c>
       <c r="E78" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4642,7 +4717,7 @@
         <v>82</v>
       </c>
       <c r="E79" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4659,7 +4734,7 @@
         <v>83</v>
       </c>
       <c r="E80" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4676,7 +4751,7 @@
         <v>84</v>
       </c>
       <c r="E81" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4693,7 +4768,7 @@
         <v>85</v>
       </c>
       <c r="E82" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4710,7 +4785,7 @@
         <v>86</v>
       </c>
       <c r="E83" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4727,7 +4802,7 @@
         <v>87</v>
       </c>
       <c r="E84" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4744,7 +4819,7 @@
         <v>88</v>
       </c>
       <c r="E85" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4761,7 +4836,7 @@
         <v>89</v>
       </c>
       <c r="E86" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4778,7 +4853,7 @@
         <v>90</v>
       </c>
       <c r="E87" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4795,7 +4870,7 @@
         <v>91</v>
       </c>
       <c r="E88" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4812,7 +4887,7 @@
         <v>92</v>
       </c>
       <c r="E89" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4829,7 +4904,7 @@
         <v>93</v>
       </c>
       <c r="E90" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4846,7 +4921,7 @@
         <v>94</v>
       </c>
       <c r="E91" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4863,7 +4938,7 @@
         <v>95</v>
       </c>
       <c r="E92" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4880,7 +4955,7 @@
         <v>96</v>
       </c>
       <c r="E93" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4897,7 +4972,7 @@
         <v>97</v>
       </c>
       <c r="E94" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4914,7 +4989,7 @@
         <v>98</v>
       </c>
       <c r="E95" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4931,7 +5006,7 @@
         <v>99</v>
       </c>
       <c r="E96" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4948,7 +5023,7 @@
         <v>100</v>
       </c>
       <c r="E97" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4965,7 +5040,7 @@
         <v>101</v>
       </c>
       <c r="E98" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4982,7 +5057,7 @@
         <v>102</v>
       </c>
       <c r="E99" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4999,7 +5074,7 @@
         <v>103</v>
       </c>
       <c r="E100" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -5016,7 +5091,7 @@
         <v>104</v>
       </c>
       <c r="E101" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -5033,7 +5108,7 @@
         <v>105</v>
       </c>
       <c r="E102" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -5050,7 +5125,7 @@
         <v>106</v>
       </c>
       <c r="E103" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -5067,7 +5142,7 @@
         <v>107</v>
       </c>
       <c r="E104" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -5084,7 +5159,7 @@
         <v>108</v>
       </c>
       <c r="E105" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -5101,7 +5176,7 @@
         <v>109</v>
       </c>
       <c r="E106" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -5118,7 +5193,7 @@
         <v>110</v>
       </c>
       <c r="E107" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -5135,7 +5210,7 @@
         <v>111</v>
       </c>
       <c r="E108" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -5152,7 +5227,7 @@
         <v>112</v>
       </c>
       <c r="E109" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -5169,7 +5244,7 @@
         <v>113</v>
       </c>
       <c r="E110" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -5186,7 +5261,7 @@
         <v>114</v>
       </c>
       <c r="E111" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -5203,7 +5278,7 @@
         <v>115</v>
       </c>
       <c r="E112" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -5220,7 +5295,7 @@
         <v>116</v>
       </c>
       <c r="E113" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -5237,7 +5312,7 @@
         <v>117</v>
       </c>
       <c r="E114" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -5254,7 +5329,7 @@
         <v>118</v>
       </c>
       <c r="E115" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -5271,7 +5346,7 @@
         <v>119</v>
       </c>
       <c r="E116" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -5288,7 +5363,7 @@
         <v>120</v>
       </c>
       <c r="E117" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -5305,7 +5380,7 @@
         <v>121</v>
       </c>
       <c r="E118" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -5322,7 +5397,7 @@
         <v>122</v>
       </c>
       <c r="E119" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -5339,7 +5414,7 @@
         <v>123</v>
       </c>
       <c r="E120" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -5356,7 +5431,7 @@
         <v>124</v>
       </c>
       <c r="E121" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -5373,7 +5448,7 @@
         <v>125</v>
       </c>
       <c r="E122" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -5390,7 +5465,7 @@
         <v>126</v>
       </c>
       <c r="E123" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -5407,7 +5482,7 @@
         <v>127</v>
       </c>
       <c r="E124" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -5424,7 +5499,7 @@
         <v>128</v>
       </c>
       <c r="E125" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -5441,7 +5516,7 @@
         <v>129</v>
       </c>
       <c r="E126" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -5458,7 +5533,7 @@
         <v>130</v>
       </c>
       <c r="E127" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -5475,7 +5550,7 @@
         <v>131</v>
       </c>
       <c r="E128" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -5492,7 +5567,7 @@
         <v>132</v>
       </c>
       <c r="E129" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -5509,7 +5584,7 @@
         <v>133</v>
       </c>
       <c r="E130" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -5526,7 +5601,7 @@
         <v>134</v>
       </c>
       <c r="E131" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -5543,7 +5618,7 @@
         <v>135</v>
       </c>
       <c r="E132" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -5560,7 +5635,7 @@
         <v>136</v>
       </c>
       <c r="E133" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -5577,7 +5652,7 @@
         <v>137</v>
       </c>
       <c r="E134" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -5594,7 +5669,7 @@
         <v>138</v>
       </c>
       <c r="E135" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -5611,7 +5686,7 @@
         <v>139</v>
       </c>
       <c r="E136" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -5628,7 +5703,7 @@
         <v>140</v>
       </c>
       <c r="E137" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -5645,7 +5720,7 @@
         <v>141</v>
       </c>
       <c r="E138" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -5662,7 +5737,7 @@
         <v>142</v>
       </c>
       <c r="E139" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -5679,7 +5754,7 @@
         <v>143</v>
       </c>
       <c r="E140" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -5696,7 +5771,7 @@
         <v>144</v>
       </c>
       <c r="E141" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -5713,7 +5788,7 @@
         <v>145</v>
       </c>
       <c r="E142" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -5730,7 +5805,7 @@
         <v>146</v>
       </c>
       <c r="E143" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -5747,7 +5822,7 @@
         <v>147</v>
       </c>
       <c r="E144" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -5764,7 +5839,7 @@
         <v>148</v>
       </c>
       <c r="E145" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -5781,7 +5856,7 @@
         <v>149</v>
       </c>
       <c r="E146" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -5798,7 +5873,7 @@
         <v>150</v>
       </c>
       <c r="E147" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -5815,7 +5890,7 @@
         <v>151</v>
       </c>
       <c r="E148" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -5832,7 +5907,7 @@
         <v>152</v>
       </c>
       <c r="E149" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5849,7 +5924,7 @@
         <v>153</v>
       </c>
       <c r="E150" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5866,7 +5941,7 @@
         <v>154</v>
       </c>
       <c r="E151" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5883,7 +5958,7 @@
         <v>155</v>
       </c>
       <c r="E152" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -5900,7 +5975,7 @@
         <v>156</v>
       </c>
       <c r="E153" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5917,7 +5992,7 @@
         <v>157</v>
       </c>
       <c r="E154" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5934,7 +6009,7 @@
         <v>158</v>
       </c>
       <c r="E155" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5951,7 +6026,7 @@
         <v>159</v>
       </c>
       <c r="E156" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5968,7 +6043,7 @@
         <v>160</v>
       </c>
       <c r="E157" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5985,7 +6060,7 @@
         <v>161</v>
       </c>
       <c r="E158" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -6002,7 +6077,7 @@
         <v>162</v>
       </c>
       <c r="E159" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -6019,7 +6094,7 @@
         <v>163</v>
       </c>
       <c r="E160" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -6036,7 +6111,7 @@
         <v>164</v>
       </c>
       <c r="E161" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -6053,7 +6128,7 @@
         <v>165</v>
       </c>
       <c r="E162" t="s">
-        <v>579</v>
+        <v>592</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -6070,7 +6145,7 @@
         <v>166</v>
       </c>
       <c r="E163" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -6087,7 +6162,7 @@
         <v>167</v>
       </c>
       <c r="E164" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -6104,7 +6179,7 @@
         <v>168</v>
       </c>
       <c r="E165" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -6121,7 +6196,7 @@
         <v>169</v>
       </c>
       <c r="E166" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -6138,7 +6213,7 @@
         <v>170</v>
       </c>
       <c r="E167" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -6155,7 +6230,7 @@
         <v>171</v>
       </c>
       <c r="E168" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -6172,7 +6247,7 @@
         <v>172</v>
       </c>
       <c r="E169" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -6189,7 +6264,7 @@
         <v>173</v>
       </c>
       <c r="E170" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -6206,7 +6281,7 @@
         <v>174</v>
       </c>
       <c r="E171" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -6223,7 +6298,7 @@
         <v>175</v>
       </c>
       <c r="E172" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -6240,7 +6315,7 @@
         <v>176</v>
       </c>
       <c r="E173" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -6257,7 +6332,7 @@
         <v>177</v>
       </c>
       <c r="E174" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -6274,7 +6349,7 @@
         <v>178</v>
       </c>
       <c r="E175" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -6291,7 +6366,7 @@
         <v>179</v>
       </c>
       <c r="E176" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -6308,7 +6383,7 @@
         <v>180</v>
       </c>
       <c r="E177" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -6325,7 +6400,7 @@
         <v>181</v>
       </c>
       <c r="E178" t="s">
-        <v>595</v>
+        <v>608</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -6342,7 +6417,7 @@
         <v>182</v>
       </c>
       <c r="E179" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -6359,7 +6434,7 @@
         <v>183</v>
       </c>
       <c r="E180" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -6376,7 +6451,7 @@
         <v>184</v>
       </c>
       <c r="E181" t="s">
-        <v>598</v>
+        <v>611</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -6393,7 +6468,7 @@
         <v>185</v>
       </c>
       <c r="E182" t="s">
-        <v>599</v>
+        <v>612</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -6410,7 +6485,7 @@
         <v>186</v>
       </c>
       <c r="E183" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -6427,7 +6502,7 @@
         <v>187</v>
       </c>
       <c r="E184" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -6444,7 +6519,7 @@
         <v>188</v>
       </c>
       <c r="E185" t="s">
-        <v>602</v>
+        <v>615</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -6461,7 +6536,7 @@
         <v>189</v>
       </c>
       <c r="E186" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -6478,7 +6553,7 @@
         <v>190</v>
       </c>
       <c r="E187" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -6495,7 +6570,7 @@
         <v>191</v>
       </c>
       <c r="E188" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -6512,7 +6587,7 @@
         <v>192</v>
       </c>
       <c r="E189" t="s">
-        <v>606</v>
+        <v>619</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -6529,7 +6604,7 @@
         <v>193</v>
       </c>
       <c r="E190" t="s">
-        <v>607</v>
+        <v>620</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -6546,7 +6621,7 @@
         <v>194</v>
       </c>
       <c r="E191" t="s">
-        <v>608</v>
+        <v>621</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -6563,7 +6638,7 @@
         <v>195</v>
       </c>
       <c r="E192" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -6580,7 +6655,7 @@
         <v>196</v>
       </c>
       <c r="E193" t="s">
-        <v>610</v>
+        <v>623</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -6597,7 +6672,7 @@
         <v>197</v>
       </c>
       <c r="E194" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -6614,7 +6689,7 @@
         <v>198</v>
       </c>
       <c r="E195" t="s">
-        <v>612</v>
+        <v>625</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -6631,7 +6706,7 @@
         <v>199</v>
       </c>
       <c r="E196" t="s">
-        <v>613</v>
+        <v>626</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -6648,7 +6723,7 @@
         <v>200</v>
       </c>
       <c r="E197" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -6665,7 +6740,7 @@
         <v>201</v>
       </c>
       <c r="E198" t="s">
-        <v>615</v>
+        <v>628</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -6682,7 +6757,7 @@
         <v>202</v>
       </c>
       <c r="E199" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -6699,7 +6774,7 @@
         <v>203</v>
       </c>
       <c r="E200" t="s">
-        <v>617</v>
+        <v>630</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -6716,7 +6791,7 @@
         <v>204</v>
       </c>
       <c r="E201" t="s">
-        <v>618</v>
+        <v>631</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -6733,7 +6808,7 @@
         <v>205</v>
       </c>
       <c r="E202" t="s">
-        <v>619</v>
+        <v>632</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -6750,7 +6825,7 @@
         <v>206</v>
       </c>
       <c r="E203" t="s">
-        <v>620</v>
+        <v>633</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -6767,7 +6842,7 @@
         <v>207</v>
       </c>
       <c r="E204" t="s">
-        <v>621</v>
+        <v>634</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -6784,7 +6859,7 @@
         <v>208</v>
       </c>
       <c r="E205" t="s">
-        <v>622</v>
+        <v>635</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -6801,7 +6876,7 @@
         <v>209</v>
       </c>
       <c r="E206" t="s">
-        <v>623</v>
+        <v>636</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -6818,7 +6893,7 @@
         <v>210</v>
       </c>
       <c r="E207" t="s">
-        <v>624</v>
+        <v>637</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6835,7 +6910,7 @@
         <v>211</v>
       </c>
       <c r="E208" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -6852,7 +6927,7 @@
         <v>212</v>
       </c>
       <c r="E209" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6869,7 +6944,7 @@
         <v>213</v>
       </c>
       <c r="E210" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6886,7 +6961,7 @@
         <v>214</v>
       </c>
       <c r="E211" t="s">
-        <v>628</v>
+        <v>641</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6903,7 +6978,7 @@
         <v>215</v>
       </c>
       <c r="E212" t="s">
-        <v>629</v>
+        <v>642</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6920,7 +6995,7 @@
         <v>216</v>
       </c>
       <c r="E213" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6937,7 +7012,7 @@
         <v>217</v>
       </c>
       <c r="E214" t="s">
-        <v>631</v>
+        <v>644</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6954,7 +7029,7 @@
         <v>218</v>
       </c>
       <c r="E215" t="s">
-        <v>632</v>
+        <v>645</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6971,7 +7046,7 @@
         <v>219</v>
       </c>
       <c r="E216" t="s">
-        <v>633</v>
+        <v>646</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6988,7 +7063,7 @@
         <v>220</v>
       </c>
       <c r="E217" t="s">
-        <v>634</v>
+        <v>647</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -7005,7 +7080,7 @@
         <v>221</v>
       </c>
       <c r="E218" t="s">
-        <v>635</v>
+        <v>648</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -7022,7 +7097,7 @@
         <v>222</v>
       </c>
       <c r="E219" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -7039,7 +7114,7 @@
         <v>223</v>
       </c>
       <c r="E220" t="s">
-        <v>637</v>
+        <v>650</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -7056,7 +7131,7 @@
         <v>224</v>
       </c>
       <c r="E221" t="s">
-        <v>638</v>
+        <v>651</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -7073,7 +7148,7 @@
         <v>225</v>
       </c>
       <c r="E222" t="s">
-        <v>639</v>
+        <v>652</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -7090,7 +7165,7 @@
         <v>226</v>
       </c>
       <c r="E223" t="s">
-        <v>640</v>
+        <v>653</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -7107,7 +7182,7 @@
         <v>227</v>
       </c>
       <c r="E224" t="s">
-        <v>641</v>
+        <v>654</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -7124,7 +7199,7 @@
         <v>228</v>
       </c>
       <c r="E225" t="s">
-        <v>642</v>
+        <v>655</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -7141,7 +7216,7 @@
         <v>229</v>
       </c>
       <c r="E226" t="s">
-        <v>643</v>
+        <v>656</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -7158,7 +7233,7 @@
         <v>230</v>
       </c>
       <c r="E227" t="s">
-        <v>644</v>
+        <v>657</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -7175,7 +7250,7 @@
         <v>231</v>
       </c>
       <c r="E228" t="s">
-        <v>645</v>
+        <v>658</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -7192,7 +7267,7 @@
         <v>232</v>
       </c>
       <c r="E229" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -7209,7 +7284,7 @@
         <v>233</v>
       </c>
       <c r="E230" t="s">
-        <v>647</v>
+        <v>660</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -7226,7 +7301,7 @@
         <v>234</v>
       </c>
       <c r="E231" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -7243,7 +7318,7 @@
         <v>235</v>
       </c>
       <c r="E232" t="s">
-        <v>649</v>
+        <v>662</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -7260,7 +7335,7 @@
         <v>236</v>
       </c>
       <c r="E233" t="s">
-        <v>650</v>
+        <v>663</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -7277,7 +7352,7 @@
         <v>237</v>
       </c>
       <c r="E234" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -7294,7 +7369,7 @@
         <v>238</v>
       </c>
       <c r="E235" t="s">
-        <v>652</v>
+        <v>665</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -7311,7 +7386,7 @@
         <v>239</v>
       </c>
       <c r="E236" t="s">
-        <v>653</v>
+        <v>666</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -7328,7 +7403,7 @@
         <v>240</v>
       </c>
       <c r="E237" t="s">
-        <v>654</v>
+        <v>667</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -7345,7 +7420,7 @@
         <v>241</v>
       </c>
       <c r="E238" t="s">
-        <v>655</v>
+        <v>668</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -7362,7 +7437,7 @@
         <v>242</v>
       </c>
       <c r="E239" t="s">
-        <v>656</v>
+        <v>669</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -7379,7 +7454,7 @@
         <v>243</v>
       </c>
       <c r="E240" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -7396,7 +7471,7 @@
         <v>244</v>
       </c>
       <c r="E241" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -7413,7 +7488,7 @@
         <v>245</v>
       </c>
       <c r="E242" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -7430,7 +7505,7 @@
         <v>246</v>
       </c>
       <c r="E243" t="s">
-        <v>660</v>
+        <v>673</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -7447,7 +7522,7 @@
         <v>247</v>
       </c>
       <c r="E244" t="s">
-        <v>661</v>
+        <v>671</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -7464,7 +7539,7 @@
         <v>248</v>
       </c>
       <c r="E245" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -7481,7 +7556,7 @@
         <v>249</v>
       </c>
       <c r="E246" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -7498,7 +7573,7 @@
         <v>250</v>
       </c>
       <c r="E247" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -7515,7 +7590,7 @@
         <v>251</v>
       </c>
       <c r="E248" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -7532,7 +7607,7 @@
         <v>252</v>
       </c>
       <c r="E249" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -7549,7 +7624,7 @@
         <v>253</v>
       </c>
       <c r="E250" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -7566,7 +7641,7 @@
         <v>254</v>
       </c>
       <c r="E251" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -7583,7 +7658,7 @@
         <v>255</v>
       </c>
       <c r="E252" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -7600,7 +7675,7 @@
         <v>256</v>
       </c>
       <c r="E253" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -7617,7 +7692,7 @@
         <v>257</v>
       </c>
       <c r="E254" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -7634,7 +7709,7 @@
         <v>258</v>
       </c>
       <c r="E255" t="s">
-        <v>672</v>
+        <v>684</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -7651,7 +7726,7 @@
         <v>259</v>
       </c>
       <c r="E256" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -7668,7 +7743,7 @@
         <v>260</v>
       </c>
       <c r="E257" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -7685,7 +7760,7 @@
         <v>261</v>
       </c>
       <c r="E258" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -7702,7 +7777,7 @@
         <v>262</v>
       </c>
       <c r="E259" t="s">
-        <v>676</v>
+        <v>688</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -7719,7 +7794,7 @@
         <v>263</v>
       </c>
       <c r="E260" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -7736,7 +7811,7 @@
         <v>264</v>
       </c>
       <c r="E261" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -7753,7 +7828,7 @@
         <v>265</v>
       </c>
       <c r="E262" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -7770,7 +7845,7 @@
         <v>266</v>
       </c>
       <c r="E263" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -7787,7 +7862,7 @@
         <v>267</v>
       </c>
       <c r="E264" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -7804,7 +7879,7 @@
         <v>268</v>
       </c>
       <c r="E265" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -7821,7 +7896,7 @@
         <v>269</v>
       </c>
       <c r="E266" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -7838,7 +7913,7 @@
         <v>270</v>
       </c>
       <c r="E267" t="s">
-        <v>684</v>
+        <v>696</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -7855,7 +7930,7 @@
         <v>271</v>
       </c>
       <c r="E268" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -7872,7 +7947,7 @@
         <v>272</v>
       </c>
       <c r="E269" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -7889,7 +7964,7 @@
         <v>273</v>
       </c>
       <c r="E270" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -7906,7 +7981,7 @@
         <v>274</v>
       </c>
       <c r="E271" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -7923,7 +7998,7 @@
         <v>275</v>
       </c>
       <c r="E272" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -7940,7 +8015,7 @@
         <v>276</v>
       </c>
       <c r="E273" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7957,7 +8032,7 @@
         <v>277</v>
       </c>
       <c r="E274" t="s">
-        <v>691</v>
+        <v>703</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -7974,7 +8049,7 @@
         <v>278</v>
       </c>
       <c r="E275" t="s">
-        <v>692</v>
+        <v>704</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -7991,7 +8066,7 @@
         <v>279</v>
       </c>
       <c r="E276" t="s">
-        <v>693</v>
+        <v>705</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -8008,7 +8083,7 @@
         <v>280</v>
       </c>
       <c r="E277" t="s">
-        <v>694</v>
+        <v>706</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -8025,7 +8100,7 @@
         <v>281</v>
       </c>
       <c r="E278" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -8042,7 +8117,7 @@
         <v>282</v>
       </c>
       <c r="E279" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -8059,7 +8134,7 @@
         <v>283</v>
       </c>
       <c r="E280" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -8076,7 +8151,7 @@
         <v>284</v>
       </c>
       <c r="E281" t="s">
-        <v>698</v>
+        <v>710</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -8093,7 +8168,7 @@
         <v>285</v>
       </c>
       <c r="E282" t="s">
-        <v>699</v>
+        <v>711</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -8110,7 +8185,7 @@
         <v>286</v>
       </c>
       <c r="E283" t="s">
-        <v>700</v>
+        <v>712</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -8127,7 +8202,7 @@
         <v>287</v>
       </c>
       <c r="E284" t="s">
-        <v>701</v>
+        <v>713</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -8144,7 +8219,7 @@
         <v>288</v>
       </c>
       <c r="E285" t="s">
-        <v>702</v>
+        <v>714</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -8161,7 +8236,7 @@
         <v>289</v>
       </c>
       <c r="E286" t="s">
-        <v>703</v>
+        <v>715</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -8178,7 +8253,7 @@
         <v>290</v>
       </c>
       <c r="E287" t="s">
-        <v>704</v>
+        <v>716</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -8195,7 +8270,7 @@
         <v>291</v>
       </c>
       <c r="E288" t="s">
-        <v>705</v>
+        <v>717</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -8212,7 +8287,7 @@
         <v>292</v>
       </c>
       <c r="E289" t="s">
-        <v>706</v>
+        <v>718</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -8229,7 +8304,7 @@
         <v>293</v>
       </c>
       <c r="E290" t="s">
-        <v>707</v>
+        <v>719</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -8246,7 +8321,7 @@
         <v>294</v>
       </c>
       <c r="E291" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -8263,7 +8338,7 @@
         <v>295</v>
       </c>
       <c r="E292" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -8280,7 +8355,7 @@
         <v>296</v>
       </c>
       <c r="E293" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -8297,7 +8372,7 @@
         <v>297</v>
       </c>
       <c r="E294" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -8314,7 +8389,7 @@
         <v>298</v>
       </c>
       <c r="E295" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -8331,7 +8406,7 @@
         <v>299</v>
       </c>
       <c r="E296" t="s">
-        <v>713</v>
+        <v>725</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -8348,7 +8423,7 @@
         <v>300</v>
       </c>
       <c r="E297" t="s">
-        <v>714</v>
+        <v>726</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -8365,7 +8440,7 @@
         <v>301</v>
       </c>
       <c r="E298" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -8382,7 +8457,7 @@
         <v>302</v>
       </c>
       <c r="E299" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -8399,7 +8474,7 @@
         <v>303</v>
       </c>
       <c r="E300" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -8416,7 +8491,7 @@
         <v>304</v>
       </c>
       <c r="E301" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -8433,7 +8508,7 @@
         <v>305</v>
       </c>
       <c r="E302" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -8450,7 +8525,7 @@
         <v>306</v>
       </c>
       <c r="E303" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -8467,7 +8542,7 @@
         <v>307</v>
       </c>
       <c r="E304" t="s">
-        <v>721</v>
+        <v>733</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -8484,7 +8559,7 @@
         <v>308</v>
       </c>
       <c r="E305" t="s">
-        <v>722</v>
+        <v>734</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -8501,7 +8576,7 @@
         <v>309</v>
       </c>
       <c r="E306" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -8518,7 +8593,7 @@
         <v>310</v>
       </c>
       <c r="E307" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -8535,7 +8610,7 @@
         <v>311</v>
       </c>
       <c r="E308" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -8552,7 +8627,7 @@
         <v>312</v>
       </c>
       <c r="E309" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -8569,7 +8644,7 @@
         <v>313</v>
       </c>
       <c r="E310" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -8586,7 +8661,7 @@
         <v>314</v>
       </c>
       <c r="E311" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -8603,7 +8678,7 @@
         <v>315</v>
       </c>
       <c r="E312" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -8620,7 +8695,7 @@
         <v>316</v>
       </c>
       <c r="E313" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -8637,7 +8712,7 @@
         <v>317</v>
       </c>
       <c r="E314" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -8654,7 +8729,7 @@
         <v>318</v>
       </c>
       <c r="E315" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -8671,7 +8746,7 @@
         <v>319</v>
       </c>
       <c r="E316" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -8688,7 +8763,7 @@
         <v>320</v>
       </c>
       <c r="E317" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -8705,7 +8780,7 @@
         <v>321</v>
       </c>
       <c r="E318" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -8722,7 +8797,7 @@
         <v>322</v>
       </c>
       <c r="E319" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -8739,7 +8814,7 @@
         <v>323</v>
       </c>
       <c r="E320" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -8756,7 +8831,7 @@
         <v>324</v>
       </c>
       <c r="E321" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -8773,7 +8848,7 @@
         <v>325</v>
       </c>
       <c r="E322" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -8790,7 +8865,7 @@
         <v>326</v>
       </c>
       <c r="E323" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -8807,7 +8882,7 @@
         <v>327</v>
       </c>
       <c r="E324" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -8824,7 +8899,7 @@
         <v>328</v>
       </c>
       <c r="E325" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8841,7 +8916,7 @@
         <v>329</v>
       </c>
       <c r="E326" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -8858,7 +8933,7 @@
         <v>330</v>
       </c>
       <c r="E327" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -8875,7 +8950,7 @@
         <v>331</v>
       </c>
       <c r="E328" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -8892,7 +8967,7 @@
         <v>332</v>
       </c>
       <c r="E329" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -8909,7 +8984,7 @@
         <v>333</v>
       </c>
       <c r="E330" t="s">
-        <v>747</v>
+        <v>759</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -8926,7 +9001,7 @@
         <v>334</v>
       </c>
       <c r="E331" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -8943,7 +9018,7 @@
         <v>335</v>
       </c>
       <c r="E332" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -8960,7 +9035,7 @@
         <v>336</v>
       </c>
       <c r="E333" t="s">
-        <v>750</v>
+        <v>762</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -8977,7 +9052,7 @@
         <v>337</v>
       </c>
       <c r="E334" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -8994,7 +9069,7 @@
         <v>338</v>
       </c>
       <c r="E335" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -9011,7 +9086,7 @@
         <v>339</v>
       </c>
       <c r="E336" t="s">
-        <v>753</v>
+        <v>765</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -9028,7 +9103,7 @@
         <v>340</v>
       </c>
       <c r="E337" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -9045,7 +9120,7 @@
         <v>341</v>
       </c>
       <c r="E338" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -9062,7 +9137,7 @@
         <v>342</v>
       </c>
       <c r="E339" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -9079,7 +9154,7 @@
         <v>343</v>
       </c>
       <c r="E340" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -9096,7 +9171,7 @@
         <v>344</v>
       </c>
       <c r="E341" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -9113,7 +9188,7 @@
         <v>345</v>
       </c>
       <c r="E342" t="s">
-        <v>759</v>
+        <v>771</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -9130,7 +9205,7 @@
         <v>346</v>
       </c>
       <c r="E343" t="s">
-        <v>760</v>
+        <v>772</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -9147,7 +9222,7 @@
         <v>347</v>
       </c>
       <c r="E344" t="s">
-        <v>761</v>
+        <v>773</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -9164,7 +9239,7 @@
         <v>348</v>
       </c>
       <c r="E345" t="s">
-        <v>762</v>
+        <v>774</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -9181,7 +9256,7 @@
         <v>349</v>
       </c>
       <c r="E346" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -9198,7 +9273,7 @@
         <v>350</v>
       </c>
       <c r="E347" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -9215,7 +9290,7 @@
         <v>351</v>
       </c>
       <c r="E348" t="s">
-        <v>765</v>
+        <v>777</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -9232,7 +9307,7 @@
         <v>352</v>
       </c>
       <c r="E349" t="s">
-        <v>766</v>
+        <v>778</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -9249,7 +9324,7 @@
         <v>353</v>
       </c>
       <c r="E350" t="s">
-        <v>767</v>
+        <v>779</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -9266,7 +9341,7 @@
         <v>354</v>
       </c>
       <c r="E351" t="s">
-        <v>768</v>
+        <v>780</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -9283,7 +9358,7 @@
         <v>355</v>
       </c>
       <c r="E352" t="s">
-        <v>769</v>
+        <v>781</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -9300,7 +9375,7 @@
         <v>356</v>
       </c>
       <c r="E353" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -9317,7 +9392,7 @@
         <v>357</v>
       </c>
       <c r="E354" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -9334,7 +9409,7 @@
         <v>358</v>
       </c>
       <c r="E355" t="s">
-        <v>772</v>
+        <v>784</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -9351,7 +9426,7 @@
         <v>359</v>
       </c>
       <c r="E356" t="s">
-        <v>773</v>
+        <v>785</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -9368,7 +9443,7 @@
         <v>360</v>
       </c>
       <c r="E357" t="s">
-        <v>774</v>
+        <v>786</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -9385,7 +9460,7 @@
         <v>361</v>
       </c>
       <c r="E358" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -9402,7 +9477,7 @@
         <v>362</v>
       </c>
       <c r="E359" t="s">
-        <v>776</v>
+        <v>788</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -9419,7 +9494,7 @@
         <v>363</v>
       </c>
       <c r="E360" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -9436,7 +9511,7 @@
         <v>364</v>
       </c>
       <c r="E361" t="s">
-        <v>778</v>
+        <v>790</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -9453,7 +9528,7 @@
         <v>365</v>
       </c>
       <c r="E362" t="s">
-        <v>779</v>
+        <v>791</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -9470,7 +9545,7 @@
         <v>366</v>
       </c>
       <c r="E363" t="s">
-        <v>780</v>
+        <v>792</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -9487,7 +9562,7 @@
         <v>367</v>
       </c>
       <c r="E364" t="s">
-        <v>781</v>
+        <v>793</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -9504,7 +9579,7 @@
         <v>368</v>
       </c>
       <c r="E365" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -9521,7 +9596,7 @@
         <v>369</v>
       </c>
       <c r="E366" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -9538,7 +9613,7 @@
         <v>370</v>
       </c>
       <c r="E367" t="s">
-        <v>784</v>
+        <v>796</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -9555,7 +9630,7 @@
         <v>371</v>
       </c>
       <c r="E368" t="s">
-        <v>785</v>
+        <v>797</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -9572,7 +9647,7 @@
         <v>372</v>
       </c>
       <c r="E369" t="s">
-        <v>786</v>
+        <v>798</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -9589,7 +9664,7 @@
         <v>373</v>
       </c>
       <c r="E370" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -9606,7 +9681,7 @@
         <v>374</v>
       </c>
       <c r="E371" t="s">
-        <v>788</v>
+        <v>800</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -9623,7 +9698,7 @@
         <v>375</v>
       </c>
       <c r="E372" t="s">
-        <v>789</v>
+        <v>801</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -9640,7 +9715,7 @@
         <v>376</v>
       </c>
       <c r="E373" t="s">
-        <v>790</v>
+        <v>802</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -9657,7 +9732,7 @@
         <v>377</v>
       </c>
       <c r="E374" t="s">
-        <v>791</v>
+        <v>803</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -9674,7 +9749,7 @@
         <v>378</v>
       </c>
       <c r="E375" t="s">
-        <v>792</v>
+        <v>804</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -9691,7 +9766,7 @@
         <v>379</v>
       </c>
       <c r="E376" t="s">
-        <v>793</v>
+        <v>805</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -9708,7 +9783,7 @@
         <v>380</v>
       </c>
       <c r="E377" t="s">
-        <v>794</v>
+        <v>806</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -9725,7 +9800,7 @@
         <v>381</v>
       </c>
       <c r="E378" t="s">
-        <v>795</v>
+        <v>807</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -9742,7 +9817,7 @@
         <v>382</v>
       </c>
       <c r="E379" t="s">
-        <v>796</v>
+        <v>808</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -9759,7 +9834,7 @@
         <v>383</v>
       </c>
       <c r="E380" t="s">
-        <v>797</v>
+        <v>809</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -9776,7 +9851,7 @@
         <v>384</v>
       </c>
       <c r="E381" t="s">
-        <v>798</v>
+        <v>810</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -9793,7 +9868,7 @@
         <v>385</v>
       </c>
       <c r="E382" t="s">
-        <v>799</v>
+        <v>811</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -9810,7 +9885,7 @@
         <v>386</v>
       </c>
       <c r="E383" t="s">
-        <v>800</v>
+        <v>812</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -9827,7 +9902,7 @@
         <v>387</v>
       </c>
       <c r="E384" t="s">
-        <v>801</v>
+        <v>813</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -9844,7 +9919,7 @@
         <v>388</v>
       </c>
       <c r="E385" t="s">
-        <v>802</v>
+        <v>814</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -9861,7 +9936,7 @@
         <v>389</v>
       </c>
       <c r="E386" t="s">
-        <v>803</v>
+        <v>815</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -9878,7 +9953,7 @@
         <v>390</v>
       </c>
       <c r="E387" t="s">
-        <v>804</v>
+        <v>816</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -9895,7 +9970,7 @@
         <v>391</v>
       </c>
       <c r="E388" t="s">
-        <v>805</v>
+        <v>817</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -9912,7 +9987,7 @@
         <v>392</v>
       </c>
       <c r="E389" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -9929,7 +10004,7 @@
         <v>393</v>
       </c>
       <c r="E390" t="s">
-        <v>807</v>
+        <v>819</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -9946,7 +10021,7 @@
         <v>394</v>
       </c>
       <c r="E391" t="s">
-        <v>808</v>
+        <v>820</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -9963,7 +10038,7 @@
         <v>395</v>
       </c>
       <c r="E392" t="s">
-        <v>809</v>
+        <v>821</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -9980,7 +10055,7 @@
         <v>396</v>
       </c>
       <c r="E393" t="s">
-        <v>810</v>
+        <v>822</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -9997,7 +10072,7 @@
         <v>397</v>
       </c>
       <c r="E394" t="s">
-        <v>811</v>
+        <v>823</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -10014,7 +10089,7 @@
         <v>398</v>
       </c>
       <c r="E395" t="s">
-        <v>812</v>
+        <v>824</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -10031,7 +10106,7 @@
         <v>399</v>
       </c>
       <c r="E396" t="s">
-        <v>813</v>
+        <v>825</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -10048,7 +10123,7 @@
         <v>400</v>
       </c>
       <c r="E397" t="s">
-        <v>814</v>
+        <v>826</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -10065,7 +10140,7 @@
         <v>401</v>
       </c>
       <c r="E398" t="s">
-        <v>815</v>
+        <v>827</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -10082,7 +10157,7 @@
         <v>402</v>
       </c>
       <c r="E399" t="s">
-        <v>816</v>
+        <v>828</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -10099,7 +10174,7 @@
         <v>403</v>
       </c>
       <c r="E400" t="s">
-        <v>817</v>
+        <v>829</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -10116,7 +10191,7 @@
         <v>404</v>
       </c>
       <c r="E401" t="s">
-        <v>818</v>
+        <v>830</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -10133,7 +10208,7 @@
         <v>405</v>
       </c>
       <c r="E402" t="s">
-        <v>819</v>
+        <v>831</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -10150,7 +10225,7 @@
         <v>406</v>
       </c>
       <c r="E403" t="s">
-        <v>820</v>
+        <v>832</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -10167,7 +10242,7 @@
         <v>407</v>
       </c>
       <c r="E404" t="s">
-        <v>821</v>
+        <v>833</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -10184,7 +10259,7 @@
         <v>408</v>
       </c>
       <c r="E405" t="s">
-        <v>822</v>
+        <v>834</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -10201,7 +10276,7 @@
         <v>409</v>
       </c>
       <c r="E406" t="s">
-        <v>823</v>
+        <v>835</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -10218,7 +10293,7 @@
         <v>410</v>
       </c>
       <c r="E407" t="s">
-        <v>824</v>
+        <v>836</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -10235,7 +10310,7 @@
         <v>411</v>
       </c>
       <c r="E408" t="s">
-        <v>825</v>
+        <v>837</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -10252,7 +10327,7 @@
         <v>412</v>
       </c>
       <c r="E409" t="s">
-        <v>826</v>
+        <v>838</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -10269,7 +10344,7 @@
         <v>413</v>
       </c>
       <c r="E410" t="s">
-        <v>827</v>
+        <v>839</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -10286,7 +10361,7 @@
         <v>414</v>
       </c>
       <c r="E411" t="s">
-        <v>828</v>
+        <v>840</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -10303,7 +10378,7 @@
         <v>415</v>
       </c>
       <c r="E412" t="s">
-        <v>829</v>
+        <v>841</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -10320,7 +10395,7 @@
         <v>416</v>
       </c>
       <c r="E413" t="s">
-        <v>830</v>
+        <v>842</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -10337,7 +10412,7 @@
         <v>417</v>
       </c>
       <c r="E414" t="s">
-        <v>831</v>
+        <v>843</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -10354,7 +10429,7 @@
         <v>418</v>
       </c>
       <c r="E415" t="s">
-        <v>832</v>
+        <v>844</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -10371,7 +10446,7 @@
         <v>419</v>
       </c>
       <c r="E416" t="s">
-        <v>833</v>
+        <v>845</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -10388,7 +10463,7 @@
         <v>420</v>
       </c>
       <c r="E417" t="s">
-        <v>834</v>
+        <v>846</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -10405,7 +10480,7 @@
         <v>421</v>
       </c>
       <c r="E418" t="s">
-        <v>835</v>
+        <v>847</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -10422,7 +10497,7 @@
         <v>422</v>
       </c>
       <c r="E419" t="s">
-        <v>836</v>
+        <v>848</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -10439,7 +10514,7 @@
         <v>423</v>
       </c>
       <c r="E420" t="s">
-        <v>837</v>
+        <v>849</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -10456,7 +10531,7 @@
         <v>424</v>
       </c>
       <c r="E421" t="s">
-        <v>838</v>
+        <v>850</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -10473,7 +10548,7 @@
         <v>425</v>
       </c>
       <c r="E422" t="s">
-        <v>839</v>
+        <v>851</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -10490,7 +10565,7 @@
         <v>426</v>
       </c>
       <c r="E423" t="s">
-        <v>840</v>
+        <v>852</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -10507,7 +10582,7 @@
         <v>427</v>
       </c>
       <c r="E424" t="s">
-        <v>841</v>
+        <v>853</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -10524,7 +10599,7 @@
         <v>428</v>
       </c>
       <c r="E425" t="s">
-        <v>842</v>
+        <v>854</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -10541,7 +10616,7 @@
         <v>429</v>
       </c>
       <c r="E426" t="s">
-        <v>843</v>
+        <v>855</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -10558,7 +10633,7 @@
         <v>430</v>
       </c>
       <c r="E427" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -10575,7 +10650,7 @@
         <v>431</v>
       </c>
       <c r="E428" t="s">
-        <v>845</v>
+        <v>857</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -10592,7 +10667,7 @@
         <v>432</v>
       </c>
       <c r="E429" t="s">
-        <v>846</v>
+        <v>858</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -10609,7 +10684,7 @@
         <v>433</v>
       </c>
       <c r="E430" t="s">
-        <v>847</v>
+        <v>859</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -10626,7 +10701,7 @@
         <v>434</v>
       </c>
       <c r="E431" t="s">
-        <v>848</v>
+        <v>860</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -10643,7 +10718,7 @@
         <v>435</v>
       </c>
       <c r="E432" t="s">
-        <v>849</v>
+        <v>861</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -10660,7 +10735,7 @@
         <v>436</v>
       </c>
       <c r="E433" t="s">
-        <v>850</v>
+        <v>862</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -10677,7 +10752,7 @@
         <v>437</v>
       </c>
       <c r="E434" t="s">
-        <v>851</v>
+        <v>863</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -10694,7 +10769,7 @@
         <v>438</v>
       </c>
       <c r="E435" t="s">
-        <v>852</v>
+        <v>864</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -10711,7 +10786,7 @@
         <v>439</v>
       </c>
       <c r="E436" t="s">
-        <v>853</v>
+        <v>865</v>
       </c>
     </row>
     <row r="437" spans="1:5">
@@ -10728,7 +10803,7 @@
         <v>440</v>
       </c>
       <c r="E437" t="s">
-        <v>854</v>
+        <v>866</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -10745,7 +10820,7 @@
         <v>441</v>
       </c>
       <c r="E438" t="s">
-        <v>855</v>
+        <v>867</v>
       </c>
     </row>
     <row r="439" spans="1:5">
@@ -10762,7 +10837,7 @@
         <v>442</v>
       </c>
       <c r="E439" t="s">
-        <v>856</v>
+        <v>868</v>
       </c>
     </row>
     <row r="440" spans="1:5">
@@ -10779,7 +10854,7 @@
         <v>443</v>
       </c>
       <c r="E440" t="s">
-        <v>857</v>
+        <v>869</v>
       </c>
     </row>
     <row r="441" spans="1:5">
@@ -10796,7 +10871,7 @@
         <v>444</v>
       </c>
       <c r="E441" t="s">
-        <v>858</v>
+        <v>870</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -10813,7 +10888,7 @@
         <v>445</v>
       </c>
       <c r="E442" t="s">
-        <v>859</v>
+        <v>871</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -10830,7 +10905,7 @@
         <v>446</v>
       </c>
       <c r="E443" t="s">
-        <v>860</v>
+        <v>872</v>
       </c>
     </row>
     <row r="444" spans="1:5">
@@ -10847,7 +10922,7 @@
         <v>447</v>
       </c>
       <c r="E444" t="s">
-        <v>861</v>
+        <v>873</v>
       </c>
     </row>
     <row r="445" spans="1:5">
@@ -10864,7 +10939,7 @@
         <v>448</v>
       </c>
       <c r="E445" t="s">
-        <v>862</v>
+        <v>874</v>
       </c>
     </row>
     <row r="446" spans="1:5">
@@ -10881,7 +10956,7 @@
         <v>449</v>
       </c>
       <c r="E446" t="s">
-        <v>863</v>
+        <v>875</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -10898,7 +10973,7 @@
         <v>450</v>
       </c>
       <c r="E447" t="s">
-        <v>864</v>
+        <v>876</v>
       </c>
     </row>
     <row r="448" spans="1:5">
@@ -10915,7 +10990,7 @@
         <v>451</v>
       </c>
       <c r="E448" t="s">
-        <v>865</v>
+        <v>877</v>
       </c>
     </row>
     <row r="449" spans="1:5">
@@ -10932,7 +11007,7 @@
         <v>452</v>
       </c>
       <c r="E449" t="s">
-        <v>866</v>
+        <v>878</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -10949,7 +11024,7 @@
         <v>453</v>
       </c>
       <c r="E450" t="s">
-        <v>867</v>
+        <v>879</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -10966,7 +11041,7 @@
         <v>454</v>
       </c>
       <c r="E451" t="s">
-        <v>868</v>
+        <v>880</v>
       </c>
     </row>
     <row r="452" spans="1:5">
@@ -10983,7 +11058,7 @@
         <v>455</v>
       </c>
       <c r="E452" t="s">
-        <v>869</v>
+        <v>881</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -11000,7 +11075,7 @@
         <v>456</v>
       </c>
       <c r="E453" t="s">
-        <v>870</v>
+        <v>882</v>
       </c>
     </row>
     <row r="454" spans="1:5">
@@ -11017,7 +11092,7 @@
         <v>457</v>
       </c>
       <c r="E454" t="s">
-        <v>871</v>
+        <v>883</v>
       </c>
     </row>
     <row r="455" spans="1:5">
@@ -11034,7 +11109,7 @@
         <v>458</v>
       </c>
       <c r="E455" t="s">
-        <v>872</v>
+        <v>884</v>
       </c>
     </row>
     <row r="456" spans="1:5">
@@ -11051,7 +11126,7 @@
         <v>459</v>
       </c>
       <c r="E456" t="s">
-        <v>873</v>
+        <v>885</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -11068,7 +11143,7 @@
         <v>460</v>
       </c>
       <c r="E457" t="s">
-        <v>874</v>
+        <v>886</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -11085,7 +11160,7 @@
         <v>461</v>
       </c>
       <c r="E458" t="s">
-        <v>875</v>
+        <v>887</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -11102,7 +11177,7 @@
         <v>462</v>
       </c>
       <c r="E459" t="s">
-        <v>876</v>
+        <v>888</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -11119,7 +11194,7 @@
         <v>463</v>
       </c>
       <c r="E460" t="s">
-        <v>877</v>
+        <v>889</v>
       </c>
     </row>
     <row r="461" spans="1:5">
@@ -11136,7 +11211,7 @@
         <v>464</v>
       </c>
       <c r="E461" t="s">
-        <v>878</v>
+        <v>890</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -11153,7 +11228,7 @@
         <v>465</v>
       </c>
       <c r="E462" t="s">
-        <v>879</v>
+        <v>891</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -11170,7 +11245,7 @@
         <v>466</v>
       </c>
       <c r="E463" t="s">
-        <v>880</v>
+        <v>892</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -11187,7 +11262,7 @@
         <v>467</v>
       </c>
       <c r="E464" t="s">
-        <v>881</v>
+        <v>893</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -11204,7 +11279,7 @@
         <v>468</v>
       </c>
       <c r="E465" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -11221,7 +11296,7 @@
         <v>469</v>
       </c>
       <c r="E466" t="s">
-        <v>883</v>
+        <v>895</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -11238,7 +11313,7 @@
         <v>470</v>
       </c>
       <c r="E467" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -11255,7 +11330,7 @@
         <v>471</v>
       </c>
       <c r="E468" t="s">
-        <v>885</v>
+        <v>897</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -11272,7 +11347,7 @@
         <v>472</v>
       </c>
       <c r="E469" t="s">
-        <v>886</v>
+        <v>898</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -11289,7 +11364,7 @@
         <v>473</v>
       </c>
       <c r="E470" t="s">
-        <v>887</v>
+        <v>899</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -11306,7 +11381,7 @@
         <v>474</v>
       </c>
       <c r="E471" t="s">
-        <v>888</v>
+        <v>900</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -11323,7 +11398,7 @@
         <v>475</v>
       </c>
       <c r="E472" t="s">
-        <v>889</v>
+        <v>901</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -11340,7 +11415,7 @@
         <v>476</v>
       </c>
       <c r="E473" t="s">
-        <v>890</v>
+        <v>902</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -11357,7 +11432,7 @@
         <v>477</v>
       </c>
       <c r="E474" t="s">
-        <v>891</v>
+        <v>903</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -11374,7 +11449,7 @@
         <v>478</v>
       </c>
       <c r="E475" t="s">
-        <v>892</v>
+        <v>904</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -11391,7 +11466,7 @@
         <v>479</v>
       </c>
       <c r="E476" t="s">
-        <v>893</v>
+        <v>905</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -11408,7 +11483,7 @@
         <v>480</v>
       </c>
       <c r="E477" t="s">
-        <v>894</v>
+        <v>906</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -11425,7 +11500,7 @@
         <v>481</v>
       </c>
       <c r="E478" t="s">
-        <v>895</v>
+        <v>907</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -11442,7 +11517,7 @@
         <v>482</v>
       </c>
       <c r="E479" t="s">
-        <v>896</v>
+        <v>908</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -11459,7 +11534,7 @@
         <v>483</v>
       </c>
       <c r="E480" t="s">
-        <v>897</v>
+        <v>909</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -11476,7 +11551,7 @@
         <v>484</v>
       </c>
       <c r="E481" t="s">
-        <v>898</v>
+        <v>910</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -11493,7 +11568,7 @@
         <v>485</v>
       </c>
       <c r="E482" t="s">
-        <v>899</v>
+        <v>911</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -11510,7 +11585,7 @@
         <v>486</v>
       </c>
       <c r="E483" t="s">
-        <v>900</v>
+        <v>912</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -11527,7 +11602,7 @@
         <v>487</v>
       </c>
       <c r="E484" t="s">
-        <v>901</v>
+        <v>913</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -11544,7 +11619,7 @@
         <v>488</v>
       </c>
       <c r="E485" t="s">
-        <v>902</v>
+        <v>914</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -11561,7 +11636,7 @@
         <v>489</v>
       </c>
       <c r="E486" t="s">
-        <v>903</v>
+        <v>915</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -11578,7 +11653,7 @@
         <v>490</v>
       </c>
       <c r="E487" t="s">
-        <v>904</v>
+        <v>916</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -11595,7 +11670,7 @@
         <v>491</v>
       </c>
       <c r="E488" t="s">
-        <v>905</v>
+        <v>917</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -11612,7 +11687,7 @@
         <v>492</v>
       </c>
       <c r="E489" t="s">
-        <v>906</v>
+        <v>918</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -11629,7 +11704,7 @@
         <v>493</v>
       </c>
       <c r="E490" t="s">
-        <v>907</v>
+        <v>919</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -11646,7 +11721,7 @@
         <v>494</v>
       </c>
       <c r="E491" t="s">
-        <v>908</v>
+        <v>920</v>
       </c>
     </row>
     <row r="492" spans="1:5">
@@ -11663,7 +11738,7 @@
         <v>495</v>
       </c>
       <c r="E492" t="s">
-        <v>909</v>
+        <v>921</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -11680,7 +11755,7 @@
         <v>496</v>
       </c>
       <c r="E493" t="s">
-        <v>910</v>
+        <v>922</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -11697,7 +11772,7 @@
         <v>497</v>
       </c>
       <c r="E494" t="s">
-        <v>911</v>
+        <v>919</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -11714,7 +11789,7 @@
         <v>498</v>
       </c>
       <c r="E495" t="s">
-        <v>912</v>
+        <v>923</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -11731,7 +11806,7 @@
         <v>499</v>
       </c>
       <c r="E496" t="s">
-        <v>913</v>
+        <v>924</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -11748,7 +11823,7 @@
         <v>500</v>
       </c>
       <c r="E497" t="s">
-        <v>914</v>
+        <v>925</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -11765,7 +11840,7 @@
         <v>501</v>
       </c>
       <c r="E498" t="s">
-        <v>915</v>
+        <v>926</v>
       </c>
     </row>
     <row r="499" spans="1:5">
@@ -11782,7 +11857,7 @@
         <v>502</v>
       </c>
       <c r="E499" t="s">
-        <v>916</v>
+        <v>927</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -11799,7 +11874,7 @@
         <v>503</v>
       </c>
       <c r="E500" t="s">
-        <v>917</v>
+        <v>928</v>
       </c>
     </row>
     <row r="501" spans="1:5">
@@ -11816,7 +11891,7 @@
         <v>504</v>
       </c>
       <c r="E501" t="s">
-        <v>918</v>
+        <v>929</v>
       </c>
     </row>
     <row r="502" spans="1:5">
@@ -11833,7 +11908,7 @@
         <v>505</v>
       </c>
       <c r="E502" t="s">
-        <v>919</v>
+        <v>930</v>
       </c>
     </row>
     <row r="503" spans="1:5">
@@ -11850,7 +11925,7 @@
         <v>506</v>
       </c>
       <c r="E503" t="s">
-        <v>920</v>
+        <v>931</v>
       </c>
     </row>
     <row r="504" spans="1:5">
@@ -11867,7 +11942,7 @@
         <v>507</v>
       </c>
       <c r="E504" t="s">
-        <v>921</v>
+        <v>932</v>
       </c>
     </row>
     <row r="505" spans="1:5">
@@ -11884,7 +11959,7 @@
         <v>508</v>
       </c>
       <c r="E505" t="s">
-        <v>922</v>
+        <v>933</v>
       </c>
     </row>
     <row r="506" spans="1:5">
@@ -11901,7 +11976,7 @@
         <v>509</v>
       </c>
       <c r="E506" t="s">
-        <v>923</v>
+        <v>934</v>
       </c>
     </row>
     <row r="507" spans="1:5">
@@ -11918,7 +11993,7 @@
         <v>510</v>
       </c>
       <c r="E507" t="s">
-        <v>924</v>
+        <v>935</v>
       </c>
     </row>
     <row r="508" spans="1:5">
@@ -11935,7 +12010,7 @@
         <v>511</v>
       </c>
       <c r="E508" t="s">
-        <v>925</v>
+        <v>936</v>
       </c>
     </row>
     <row r="509" spans="1:5">
@@ -11952,7 +12027,7 @@
         <v>512</v>
       </c>
       <c r="E509" t="s">
-        <v>926</v>
+        <v>937</v>
       </c>
     </row>
     <row r="510" spans="1:5">
@@ -11969,7 +12044,7 @@
         <v>513</v>
       </c>
       <c r="E510" t="s">
-        <v>927</v>
+        <v>938</v>
       </c>
     </row>
     <row r="511" spans="1:5">
@@ -11986,7 +12061,7 @@
         <v>514</v>
       </c>
       <c r="E511" t="s">
-        <v>928</v>
+        <v>939</v>
       </c>
     </row>
     <row r="512" spans="1:5">
@@ -12003,7 +12078,7 @@
         <v>515</v>
       </c>
       <c r="E512" t="s">
-        <v>929</v>
+        <v>940</v>
       </c>
     </row>
     <row r="513" spans="1:5">
@@ -12020,7 +12095,7 @@
         <v>516</v>
       </c>
       <c r="E513" t="s">
-        <v>930</v>
+        <v>941</v>
       </c>
     </row>
     <row r="514" spans="1:5">
@@ -12037,7 +12112,7 @@
         <v>517</v>
       </c>
       <c r="E514" t="s">
-        <v>931</v>
+        <v>942</v>
       </c>
     </row>
     <row r="515" spans="1:5">
@@ -12054,7 +12129,7 @@
         <v>518</v>
       </c>
       <c r="E515" t="s">
-        <v>932</v>
+        <v>943</v>
       </c>
     </row>
     <row r="516" spans="1:5">
@@ -12071,7 +12146,7 @@
         <v>519</v>
       </c>
       <c r="E516" t="s">
-        <v>933</v>
+        <v>944</v>
       </c>
     </row>
     <row r="517" spans="1:5">
@@ -12088,7 +12163,7 @@
         <v>520</v>
       </c>
       <c r="E517" t="s">
-        <v>934</v>
+        <v>945</v>
       </c>
     </row>
     <row r="518" spans="1:5">
@@ -12105,7 +12180,7 @@
         <v>521</v>
       </c>
       <c r="E518" t="s">
-        <v>935</v>
+        <v>946</v>
       </c>
     </row>
     <row r="519" spans="1:5">
@@ -12122,7 +12197,7 @@
         <v>522</v>
       </c>
       <c r="E519" t="s">
-        <v>936</v>
+        <v>947</v>
       </c>
     </row>
     <row r="520" spans="1:5">
@@ -12139,7 +12214,7 @@
         <v>523</v>
       </c>
       <c r="E520" t="s">
-        <v>937</v>
+        <v>948</v>
       </c>
     </row>
     <row r="521" spans="1:5">
@@ -12156,7 +12231,7 @@
         <v>524</v>
       </c>
       <c r="E521" t="s">
-        <v>938</v>
+        <v>949</v>
       </c>
     </row>
     <row r="522" spans="1:5">
@@ -12173,7 +12248,7 @@
         <v>525</v>
       </c>
       <c r="E522" t="s">
-        <v>939</v>
+        <v>950</v>
       </c>
     </row>
     <row r="523" spans="1:5">
@@ -12190,7 +12265,7 @@
         <v>526</v>
       </c>
       <c r="E523" t="s">
-        <v>940</v>
+        <v>951</v>
       </c>
     </row>
     <row r="524" spans="1:5">
@@ -12207,7 +12282,7 @@
         <v>527</v>
       </c>
       <c r="E524" t="s">
-        <v>941</v>
+        <v>952</v>
       </c>
     </row>
     <row r="525" spans="1:5">
@@ -12224,7 +12299,7 @@
         <v>528</v>
       </c>
       <c r="E525" t="s">
-        <v>942</v>
+        <v>953</v>
       </c>
     </row>
     <row r="526" spans="1:5">
@@ -12241,7 +12316,7 @@
         <v>529</v>
       </c>
       <c r="E526" t="s">
-        <v>943</v>
+        <v>954</v>
       </c>
     </row>
     <row r="527" spans="1:5">
@@ -12258,7 +12333,7 @@
         <v>530</v>
       </c>
       <c r="E527" t="s">
-        <v>943</v>
+        <v>955</v>
       </c>
     </row>
     <row r="528" spans="1:5">
@@ -12275,7 +12350,7 @@
         <v>531</v>
       </c>
       <c r="E528" t="s">
-        <v>944</v>
+        <v>956</v>
       </c>
     </row>
     <row r="529" spans="1:5">
@@ -12292,7 +12367,7 @@
         <v>532</v>
       </c>
       <c r="E529" t="s">
-        <v>945</v>
+        <v>957</v>
       </c>
     </row>
     <row r="530" spans="1:5">
@@ -12309,7 +12384,7 @@
         <v>533</v>
       </c>
       <c r="E530" t="s">
-        <v>946</v>
+        <v>958</v>
       </c>
     </row>
     <row r="531" spans="1:5">
@@ -12326,7 +12401,7 @@
         <v>534</v>
       </c>
       <c r="E531" t="s">
-        <v>947</v>
+        <v>959</v>
       </c>
     </row>
     <row r="532" spans="1:5">
@@ -12343,7 +12418,7 @@
         <v>535</v>
       </c>
       <c r="E532" t="s">
-        <v>948</v>
+        <v>960</v>
       </c>
     </row>
     <row r="533" spans="1:5">
@@ -12360,7 +12435,7 @@
         <v>536</v>
       </c>
       <c r="E533" t="s">
-        <v>949</v>
+        <v>961</v>
       </c>
     </row>
     <row r="534" spans="1:5">
@@ -12377,7 +12452,7 @@
         <v>537</v>
       </c>
       <c r="E534" t="s">
-        <v>950</v>
+        <v>962</v>
       </c>
     </row>
     <row r="535" spans="1:5">
@@ -12394,7 +12469,7 @@
         <v>538</v>
       </c>
       <c r="E535" t="s">
-        <v>951</v>
+        <v>963</v>
       </c>
     </row>
     <row r="536" spans="1:5">
@@ -12411,7 +12486,7 @@
         <v>539</v>
       </c>
       <c r="E536" t="s">
-        <v>952</v>
+        <v>964</v>
       </c>
     </row>
     <row r="537" spans="1:5">
@@ -12428,7 +12503,7 @@
         <v>540</v>
       </c>
       <c r="E537" t="s">
-        <v>953</v>
+        <v>965</v>
       </c>
     </row>
     <row r="538" spans="1:5">
@@ -12445,7 +12520,7 @@
         <v>541</v>
       </c>
       <c r="E538" t="s">
-        <v>954</v>
+        <v>966</v>
       </c>
     </row>
     <row r="539" spans="1:5">
@@ -12462,7 +12537,7 @@
         <v>542</v>
       </c>
       <c r="E539" t="s">
-        <v>955</v>
+        <v>967</v>
       </c>
     </row>
     <row r="540" spans="1:5">
@@ -12479,7 +12554,7 @@
         <v>543</v>
       </c>
       <c r="E540" t="s">
-        <v>956</v>
+        <v>968</v>
       </c>
     </row>
     <row r="541" spans="1:5">
@@ -12496,7 +12571,7 @@
         <v>544</v>
       </c>
       <c r="E541" t="s">
-        <v>957</v>
+        <v>969</v>
       </c>
     </row>
     <row r="542" spans="1:5">
@@ -12513,7 +12588,7 @@
         <v>545</v>
       </c>
       <c r="E542" t="s">
-        <v>958</v>
+        <v>970</v>
       </c>
     </row>
     <row r="543" spans="1:5">
@@ -12530,7 +12605,7 @@
         <v>546</v>
       </c>
       <c r="E543" t="s">
-        <v>959</v>
+        <v>971</v>
       </c>
     </row>
     <row r="544" spans="1:5">
@@ -12547,7 +12622,7 @@
         <v>547</v>
       </c>
       <c r="E544" t="s">
-        <v>960</v>
+        <v>972</v>
       </c>
     </row>
     <row r="545" spans="1:5">
@@ -12564,7 +12639,7 @@
         <v>548</v>
       </c>
       <c r="E545" t="s">
-        <v>961</v>
+        <v>973</v>
       </c>
     </row>
     <row r="546" spans="1:5">
@@ -12581,7 +12656,7 @@
         <v>549</v>
       </c>
       <c r="E546" t="s">
-        <v>962</v>
+        <v>974</v>
       </c>
     </row>
     <row r="547" spans="1:5">
@@ -12598,7 +12673,7 @@
         <v>550</v>
       </c>
       <c r="E547" t="s">
-        <v>963</v>
+        <v>975</v>
       </c>
     </row>
     <row r="548" spans="1:5">
@@ -12615,7 +12690,7 @@
         <v>551</v>
       </c>
       <c r="E548" t="s">
-        <v>964</v>
+        <v>976</v>
       </c>
     </row>
     <row r="549" spans="1:5">
@@ -12632,7 +12707,7 @@
         <v>552</v>
       </c>
       <c r="E549" t="s">
-        <v>965</v>
+        <v>977</v>
       </c>
     </row>
     <row r="550" spans="1:5">
@@ -12649,7 +12724,7 @@
         <v>553</v>
       </c>
       <c r="E550" t="s">
-        <v>966</v>
+        <v>978</v>
       </c>
     </row>
     <row r="551" spans="1:5">
@@ -12666,7 +12741,7 @@
         <v>554</v>
       </c>
       <c r="E551" t="s">
-        <v>967</v>
+        <v>979</v>
       </c>
     </row>
     <row r="552" spans="1:5">
@@ -12683,7 +12758,7 @@
         <v>555</v>
       </c>
       <c r="E552" t="s">
-        <v>968</v>
+        <v>980</v>
       </c>
     </row>
     <row r="553" spans="1:5">
@@ -12700,7 +12775,7 @@
         <v>556</v>
       </c>
       <c r="E553" t="s">
-        <v>969</v>
+        <v>981</v>
       </c>
     </row>
     <row r="554" spans="1:5">
@@ -12717,7 +12792,7 @@
         <v>557</v>
       </c>
       <c r="E554" t="s">
-        <v>970</v>
+        <v>982</v>
       </c>
     </row>
     <row r="555" spans="1:5">
@@ -12734,7 +12809,7 @@
         <v>558</v>
       </c>
       <c r="E555" t="s">
-        <v>971</v>
+        <v>983</v>
       </c>
     </row>
     <row r="556" spans="1:5">
@@ -12751,7 +12826,7 @@
         <v>559</v>
       </c>
       <c r="E556" t="s">
-        <v>972</v>
+        <v>984</v>
       </c>
     </row>
     <row r="557" spans="1:5">
@@ -12768,7 +12843,7 @@
         <v>560</v>
       </c>
       <c r="E557" t="s">
-        <v>973</v>
+        <v>985</v>
       </c>
     </row>
     <row r="558" spans="1:5">
@@ -12785,7 +12860,228 @@
         <v>561</v>
       </c>
       <c r="E558" t="s">
-        <v>974</v>
+        <v>986</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5">
+      <c r="A559" s="1">
+        <v>557</v>
+      </c>
+      <c r="B559" t="s">
+        <v>4</v>
+      </c>
+      <c r="C559" t="s">
+        <v>4</v>
+      </c>
+      <c r="D559" t="s">
+        <v>562</v>
+      </c>
+      <c r="E559" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5">
+      <c r="A560" s="1">
+        <v>558</v>
+      </c>
+      <c r="B560" t="s">
+        <v>4</v>
+      </c>
+      <c r="C560" t="s">
+        <v>4</v>
+      </c>
+      <c r="D560" t="s">
+        <v>563</v>
+      </c>
+      <c r="E560" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5">
+      <c r="A561" s="1">
+        <v>559</v>
+      </c>
+      <c r="B561" t="s">
+        <v>4</v>
+      </c>
+      <c r="C561" t="s">
+        <v>4</v>
+      </c>
+      <c r="D561" t="s">
+        <v>564</v>
+      </c>
+      <c r="E561" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5">
+      <c r="A562" s="1">
+        <v>560</v>
+      </c>
+      <c r="B562" t="s">
+        <v>4</v>
+      </c>
+      <c r="C562" t="s">
+        <v>4</v>
+      </c>
+      <c r="D562" t="s">
+        <v>565</v>
+      </c>
+      <c r="E562" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5">
+      <c r="A563" s="1">
+        <v>561</v>
+      </c>
+      <c r="B563" t="s">
+        <v>4</v>
+      </c>
+      <c r="C563" t="s">
+        <v>4</v>
+      </c>
+      <c r="D563" t="s">
+        <v>566</v>
+      </c>
+      <c r="E563" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5">
+      <c r="A564" s="1">
+        <v>562</v>
+      </c>
+      <c r="B564" t="s">
+        <v>4</v>
+      </c>
+      <c r="C564" t="s">
+        <v>4</v>
+      </c>
+      <c r="D564" t="s">
+        <v>567</v>
+      </c>
+      <c r="E564" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5">
+      <c r="A565" s="1">
+        <v>563</v>
+      </c>
+      <c r="B565" t="s">
+        <v>4</v>
+      </c>
+      <c r="C565" t="s">
+        <v>4</v>
+      </c>
+      <c r="D565" t="s">
+        <v>568</v>
+      </c>
+      <c r="E565" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5">
+      <c r="A566" s="1">
+        <v>564</v>
+      </c>
+      <c r="B566" t="s">
+        <v>4</v>
+      </c>
+      <c r="C566" t="s">
+        <v>4</v>
+      </c>
+      <c r="D566" t="s">
+        <v>569</v>
+      </c>
+      <c r="E566" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5">
+      <c r="A567" s="1">
+        <v>565</v>
+      </c>
+      <c r="B567" t="s">
+        <v>4</v>
+      </c>
+      <c r="C567" t="s">
+        <v>4</v>
+      </c>
+      <c r="D567" t="s">
+        <v>570</v>
+      </c>
+      <c r="E567" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5">
+      <c r="A568" s="1">
+        <v>566</v>
+      </c>
+      <c r="B568" t="s">
+        <v>4</v>
+      </c>
+      <c r="C568" t="s">
+        <v>4</v>
+      </c>
+      <c r="D568" t="s">
+        <v>571</v>
+      </c>
+      <c r="E568" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5">
+      <c r="A569" s="1">
+        <v>567</v>
+      </c>
+      <c r="B569" t="s">
+        <v>4</v>
+      </c>
+      <c r="C569" t="s">
+        <v>4</v>
+      </c>
+      <c r="D569" t="s">
+        <v>572</v>
+      </c>
+      <c r="E569" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5">
+      <c r="A570" s="1">
+        <v>568</v>
+      </c>
+      <c r="B570" t="s">
+        <v>4</v>
+      </c>
+      <c r="C570" t="s">
+        <v>4</v>
+      </c>
+      <c r="D570" t="s">
+        <v>573</v>
+      </c>
+      <c r="E570" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5">
+      <c r="A571" s="1">
+        <v>569</v>
+      </c>
+      <c r="B571" t="s">
+        <v>4</v>
+      </c>
+      <c r="C571" t="s">
+        <v>4</v>
+      </c>
+      <c r="D571" t="s">
+        <v>574</v>
+      </c>
+      <c r="E571" t="s">
+        <v>999</v>
       </c>
     </row>
   </sheetData>
